--- a/Datos/Anuario2024/120602_RecogidaResiduosSolidos.xlsx
+++ b/Datos/Anuario2024/120602_RecogidaResiduosSolidos.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="897" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="897"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1 graf1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1 graf2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2 graf1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="2 graf2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="2 graf3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="2 graf4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="3" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="4" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="0" sheetId="37" r:id="rId1"/>
+    <sheet name="1" sheetId="43" r:id="rId2"/>
+    <sheet name="1 graf1" sheetId="57" r:id="rId3"/>
+    <sheet name="1 graf2" sheetId="90" r:id="rId4"/>
+    <sheet name="2" sheetId="40" r:id="rId5"/>
+    <sheet name="2 graf1" sheetId="52" r:id="rId6"/>
+    <sheet name="2 graf2" sheetId="53" r:id="rId7"/>
+    <sheet name="2 graf3" sheetId="55" r:id="rId8"/>
+    <sheet name="2 graf4" sheetId="56" r:id="rId9"/>
+    <sheet name="3" sheetId="48" r:id="rId10"/>
+    <sheet name="4" sheetId="105" r:id="rId11"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId12"/>
@@ -58,6 +64,7 @@
     <definedName name="_R5_6">#REF!</definedName>
     <definedName name="_R5_7">#REF!</definedName>
     <definedName name="_R5_8">#REF!</definedName>
+    <definedName name="_R5_9" localSheetId="9">'3'!$A$1:$N$23</definedName>
     <definedName name="_R5_9">'1'!$A$1:$L$24</definedName>
     <definedName name="_R6_1">#REF!</definedName>
     <definedName name="_R6_2">#REF!</definedName>
@@ -67,92 +74,314 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'2 graf2'!$A$1:$C$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'2 graf3'!$A$1:$C$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'2 graf4'!$A$1:$C$22</definedName>
-    <definedName name="_R5_9" localSheetId="9">'3'!$A$1:$N$23</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
+  <si>
+    <t>Envases ligeros</t>
+  </si>
+  <si>
+    <t>Contenedores 
+de pilas</t>
+  </si>
+  <si>
+    <t>Pilas</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>València</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>1. Ciutat Vella</t>
+  </si>
+  <si>
+    <t>3. Extramurs</t>
+  </si>
+  <si>
+    <t>4. Campanar</t>
+  </si>
+  <si>
+    <t>8. Patraix</t>
+  </si>
+  <si>
+    <t>9. Jesús</t>
+  </si>
+  <si>
+    <t>10. Quatre Carreres</t>
+  </si>
+  <si>
+    <t>11. Poblats Marítims</t>
+  </si>
+  <si>
+    <t>12. Camins al Grau</t>
+  </si>
+  <si>
+    <t>13. Algirós</t>
+  </si>
+  <si>
+    <t>14. Benimaclet</t>
+  </si>
+  <si>
+    <t>15. Rascanya</t>
+  </si>
+  <si>
+    <t>16. Benicalap</t>
+  </si>
+  <si>
+    <t>17. Pobles del Nord</t>
+  </si>
+  <si>
+    <t>18. Pobles de l'Oest</t>
+  </si>
+  <si>
+    <t>19. Pobles del Sud</t>
+  </si>
+  <si>
+    <t>No consta</t>
+  </si>
+  <si>
+    <t>Contenedores</t>
+  </si>
+  <si>
+    <t>5. la Saïdia</t>
+  </si>
+  <si>
+    <t>6. el Pla del Real</t>
+  </si>
+  <si>
+    <t>7. l'Olivereta</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Kg por hab. y año</t>
+  </si>
+  <si>
+    <t>Valor económico (€)</t>
+  </si>
+  <si>
+    <t>Vidrio</t>
+  </si>
+  <si>
+    <t>Cartón</t>
+  </si>
+  <si>
+    <t>Papeleras</t>
+  </si>
+  <si>
+    <t>Papeleras/
+1.000 hab</t>
+  </si>
+  <si>
+    <t>Papel-cartón</t>
+  </si>
+  <si>
+    <t>Volumen físico (tm)</t>
+  </si>
+  <si>
+    <t>Aceite vegetal</t>
+  </si>
+  <si>
+    <t>Cont. Basura Orgánica/
+1.000 hab</t>
+  </si>
+  <si>
+    <t>Contenedores Basura Orgánica</t>
+  </si>
+  <si>
+    <t>Basura (RU)</t>
+  </si>
+  <si>
+    <t>Cont. Basura (RU)/
+1.000 hab</t>
+  </si>
+  <si>
+    <t>Basura Orgánica</t>
+  </si>
+  <si>
+    <t>Ropa usada (**)</t>
+  </si>
+  <si>
+    <t>Toneladas recogidas (*)</t>
+  </si>
+  <si>
+    <t>Ropa usada</t>
+  </si>
+  <si>
+    <t>RECOGIDA DE RESIDUOS URBANOS</t>
+  </si>
+  <si>
+    <t>Llamadas recibidas</t>
+  </si>
+  <si>
+    <t>Toneladas recogidas</t>
+  </si>
+  <si>
+    <t>1. Mobiliario urbano para la recogida de residuos sólidos. 2023</t>
+  </si>
+  <si>
+    <t>(*)</t>
+  </si>
+  <si>
+    <t>2. Recogida de residuos sólidos según mes. 2023</t>
+  </si>
+  <si>
+    <t>3. Contenedores de escombros y recogida de escombros por distrito y mes. 2023</t>
+  </si>
+  <si>
+    <t>4. Recogida gratuita de muebles y objetos según mes. 2023</t>
+  </si>
+  <si>
+    <t>Nota: Población calculada a 01/07/2023. Padrón Municipal de Habitantes del Ayuntamiento de València.</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Gestión Sostenible de Residuos Urbanos y Limpieza del Espacio Público. Ayuntamiento de València.</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Gestión Sostenible de Residuos Urbanos y Limpieza del Espacio Público. Ajuntament de València. (**) Servicio de Bienestar Social e Integración. Ajuntament de València.</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Gestión Sostenible de Residuos Urbanos y Limpieza del Espacio Público. Ayuntamiento de València. (*) EMTRE - Entidad Metropolitana para el Tratamiento de Residuos.</t>
+  </si>
+  <si>
+    <t>Nota: Población calculada a 01/07/2023. Nota: (*) Desde el convenio firmado con ECOVIDRIO, no hay costes ni ingresos para el Ayuntamiento.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Contenedores Basura (RU)</t>
+  </si>
+  <si>
+    <t>2. l'Eixample</t>
+  </si>
+  <si>
+    <t>Plástico y
+envases ligeros</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -181,141 +410,126 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="55">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 6" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -385,12 +599,380 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4838700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="171450" y="249555"/>
+          <a:ext cx="5038725" cy="3514725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>169545</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4836795</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="169545" y="251460"/>
+          <a:ext cx="5038725" cy="3524250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>163830</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4802505</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5121" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="163830" y="264795"/>
+          <a:ext cx="5010150" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4865370</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7169" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="198120" y="251460"/>
+          <a:ext cx="5038725" cy="3514725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>264795</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4932045</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9217" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="264795" y="241935"/>
+          <a:ext cx="5038725" cy="3514725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4895850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11265" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="219075" y="236220"/>
+          <a:ext cx="5048250" cy="3533775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2234,3414 +2816,3099 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja65">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="43.7109375" customWidth="1" style="3" min="1" max="1"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="3">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>RECOGIDA DE RESIDUOS URBANOS</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja741">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="20.7109375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="3" min="2" max="14"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="14" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="3">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>3. Contenedores de escombros y recogida de escombros por distrito y mes. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="6" t="n"/>
-      <c r="D1" s="6" t="n"/>
-      <c r="E1" s="6" t="n"/>
-      <c r="F1" s="6" t="n"/>
-      <c r="G1" s="6" t="n"/>
-      <c r="H1" s="6" t="n"/>
-      <c r="I1" s="6" t="n"/>
-      <c r="J1" s="6" t="n"/>
-      <c r="K1" s="6" t="n"/>
-      <c r="L1" s="6" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="12" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="n"/>
-      <c r="B2" s="12" t="n"/>
-      <c r="C2" s="12" t="n"/>
-      <c r="D2" s="12" t="n"/>
-      <c r="E2" s="12" t="n"/>
-      <c r="F2" s="12" t="n"/>
-      <c r="G2" s="12" t="n"/>
-      <c r="H2" s="12" t="n"/>
-      <c r="I2" s="12" t="n"/>
-      <c r="J2" s="12" t="n"/>
-      <c r="K2" s="12" t="n"/>
-      <c r="L2" s="12" t="n"/>
-      <c r="M2" s="12" t="n"/>
-      <c r="N2" s="12" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="3">
-      <c r="A3" s="14" t="n"/>
-      <c r="B3" s="15" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="15" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="D3" s="15" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="E3" s="15" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="F3" s="15" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="G3" s="15" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="H3" s="15" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="I3" s="15" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="J3" s="15" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="K3" s="15" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="L3" s="15" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="M3" s="15" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="N3" s="15" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="n"/>
-      <c r="Q3" s="1" t="n"/>
-      <c r="R3" s="1" t="n"/>
-      <c r="S3" s="1" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="44" t="inlineStr">
-        <is>
-          <t>Contenedores</t>
-        </is>
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="47">
         <f>SUM(B5:B24)</f>
-        <v/>
+        <v>3945</v>
       </c>
       <c r="C4" s="47">
         <f>SUM(C5:C24)</f>
-        <v/>
+        <v>368</v>
       </c>
       <c r="D4" s="47">
-        <f>SUM(D5:D24)</f>
-        <v/>
+        <f t="shared" ref="D4:N4" si="0">SUM(D5:D24)</f>
+        <v>329</v>
       </c>
       <c r="E4" s="47">
-        <f>SUM(E5:E24)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>301</v>
       </c>
       <c r="F4" s="47">
-        <f>SUM(F5:F24)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>272</v>
       </c>
       <c r="G4" s="47">
-        <f>SUM(G5:G24)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>398</v>
       </c>
       <c r="H4" s="47">
-        <f>SUM(H5:H24)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>441</v>
       </c>
       <c r="I4" s="47">
-        <f>SUM(I5:I24)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>360</v>
       </c>
       <c r="J4" s="47">
-        <f>SUM(J5:J24)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>231</v>
       </c>
       <c r="K4" s="47">
-        <f>SUM(K5:K24)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>399</v>
       </c>
       <c r="L4" s="47">
-        <f>SUM(L5:L24)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>329</v>
       </c>
       <c r="M4" s="47">
-        <f>SUM(M5:M24)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>297</v>
       </c>
       <c r="N4" s="47">
-        <f>SUM(N5:N24)</f>
-        <v/>
-      </c>
-      <c r="P4" s="37" t="n"/>
-      <c r="Q4" s="43" t="n"/>
-      <c r="R4" s="32" t="n"/>
-      <c r="S4" s="29" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="19" t="inlineStr">
-        <is>
-          <t>1. Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B5" s="36" t="n">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="29"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="36">
         <v>228</v>
       </c>
-      <c r="C5" s="36" t="n">
+      <c r="C5" s="36">
         <v>18</v>
       </c>
-      <c r="D5" s="36" t="n">
+      <c r="D5" s="36">
         <v>19</v>
       </c>
-      <c r="E5" s="36" t="n">
+      <c r="E5" s="36">
         <v>20</v>
       </c>
-      <c r="F5" s="36" t="n">
+      <c r="F5" s="36">
         <v>13</v>
       </c>
-      <c r="G5" s="36" t="n">
+      <c r="G5" s="36">
         <v>21</v>
       </c>
-      <c r="H5" s="36" t="n">
+      <c r="H5" s="36">
         <v>31</v>
       </c>
-      <c r="I5" s="36" t="n">
+      <c r="I5" s="36">
         <v>22</v>
       </c>
-      <c r="J5" s="36" t="n">
+      <c r="J5" s="36">
         <v>18</v>
       </c>
-      <c r="K5" s="36" t="n">
+      <c r="K5" s="36">
         <v>23</v>
       </c>
-      <c r="L5" s="36" t="n">
+      <c r="L5" s="36">
         <v>18</v>
       </c>
-      <c r="M5" s="36" t="n">
+      <c r="M5" s="36">
         <v>16</v>
       </c>
-      <c r="N5" s="36" t="n">
+      <c r="N5" s="36">
         <v>9</v>
       </c>
-      <c r="P5" s="37" t="n"/>
-      <c r="Q5" s="29" t="n"/>
-      <c r="R5" s="32" t="n"/>
-      <c r="S5" s="29" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="20" t="inlineStr">
-        <is>
-          <t>2. l'Eixample</t>
-        </is>
-      </c>
-      <c r="B6" s="35" t="n">
+      <c r="P5" s="37"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="29"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="35">
         <v>459</v>
       </c>
-      <c r="C6" s="35" t="n">
+      <c r="C6" s="35">
         <v>35</v>
       </c>
-      <c r="D6" s="35" t="n">
+      <c r="D6" s="35">
         <v>31</v>
       </c>
-      <c r="E6" s="35" t="n">
+      <c r="E6" s="35">
         <v>32</v>
       </c>
-      <c r="F6" s="35" t="n">
+      <c r="F6" s="35">
         <v>28</v>
       </c>
-      <c r="G6" s="35" t="n">
+      <c r="G6" s="35">
         <v>53</v>
       </c>
-      <c r="H6" s="35" t="n">
+      <c r="H6" s="35">
         <v>59</v>
       </c>
-      <c r="I6" s="35" t="n">
+      <c r="I6" s="35">
         <v>35</v>
       </c>
-      <c r="J6" s="35" t="n">
+      <c r="J6" s="35">
         <v>33</v>
       </c>
-      <c r="K6" s="35" t="n">
+      <c r="K6" s="35">
         <v>52</v>
       </c>
-      <c r="L6" s="35" t="n">
+      <c r="L6" s="35">
         <v>38</v>
       </c>
-      <c r="M6" s="35" t="n">
+      <c r="M6" s="35">
         <v>40</v>
       </c>
-      <c r="N6" s="35" t="n">
+      <c r="N6" s="35">
         <v>23</v>
       </c>
-      <c r="P6" s="37" t="n"/>
-      <c r="Q6" s="29" t="n"/>
-      <c r="R6" s="32" t="n"/>
-      <c r="S6" s="29" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="19" t="inlineStr">
-        <is>
-          <t>3. Extramurs</t>
-        </is>
-      </c>
-      <c r="B7" s="36" t="n">
+      <c r="P6" s="37"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="29"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="36">
         <v>407</v>
       </c>
-      <c r="C7" s="36" t="n">
+      <c r="C7" s="36">
         <v>79</v>
       </c>
-      <c r="D7" s="36" t="n">
+      <c r="D7" s="36">
         <v>22</v>
       </c>
-      <c r="E7" s="36" t="n">
+      <c r="E7" s="36">
         <v>31</v>
       </c>
-      <c r="F7" s="36" t="n">
+      <c r="F7" s="36">
         <v>26</v>
       </c>
-      <c r="G7" s="36" t="n">
+      <c r="G7" s="36">
         <v>28</v>
       </c>
-      <c r="H7" s="36" t="n">
+      <c r="H7" s="36">
         <v>44</v>
       </c>
-      <c r="I7" s="36" t="n">
+      <c r="I7" s="36">
         <v>37</v>
       </c>
-      <c r="J7" s="36" t="n">
+      <c r="J7" s="36">
         <v>21</v>
       </c>
-      <c r="K7" s="36" t="n">
+      <c r="K7" s="36">
         <v>39</v>
       </c>
-      <c r="L7" s="36" t="n">
+      <c r="L7" s="36">
         <v>24</v>
       </c>
-      <c r="M7" s="36" t="n">
+      <c r="M7" s="36">
         <v>33</v>
       </c>
-      <c r="N7" s="36" t="n">
+      <c r="N7" s="36">
         <v>23</v>
       </c>
-      <c r="P7" s="37" t="n"/>
-      <c r="Q7" s="29" t="n"/>
-      <c r="R7" s="32" t="n"/>
-      <c r="S7" s="29" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="20" t="inlineStr">
-        <is>
-          <t>4. Campanar</t>
-        </is>
-      </c>
-      <c r="B8" s="35" t="n">
+      <c r="P7" s="37"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="29"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="35">
         <v>186</v>
       </c>
-      <c r="C8" s="35" t="n">
+      <c r="C8" s="35">
         <v>11</v>
       </c>
-      <c r="D8" s="35" t="n">
+      <c r="D8" s="35">
         <v>17</v>
       </c>
-      <c r="E8" s="35" t="n">
+      <c r="E8" s="35">
         <v>13</v>
       </c>
-      <c r="F8" s="35" t="n">
+      <c r="F8" s="35">
         <v>20</v>
       </c>
-      <c r="G8" s="35" t="n">
+      <c r="G8" s="35">
         <v>17</v>
       </c>
-      <c r="H8" s="35" t="n">
+      <c r="H8" s="35">
         <v>18</v>
       </c>
-      <c r="I8" s="35" t="n">
+      <c r="I8" s="35">
         <v>19</v>
       </c>
-      <c r="J8" s="35" t="n">
+      <c r="J8" s="35">
         <v>10</v>
       </c>
-      <c r="K8" s="35" t="n">
+      <c r="K8" s="35">
         <v>21</v>
       </c>
-      <c r="L8" s="35" t="n">
+      <c r="L8" s="35">
         <v>17</v>
       </c>
-      <c r="M8" s="35" t="n">
+      <c r="M8" s="35">
         <v>17</v>
       </c>
-      <c r="N8" s="35" t="n">
+      <c r="N8" s="35">
         <v>6</v>
       </c>
-      <c r="P8" s="37" t="n"/>
-      <c r="Q8" s="29" t="n"/>
-      <c r="R8" s="32" t="n"/>
-      <c r="S8" s="29" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="3">
-      <c r="A9" s="19" t="inlineStr">
-        <is>
-          <t>5. la Saïdia</t>
-        </is>
-      </c>
-      <c r="B9" s="36" t="n">
+      <c r="P8" s="37"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="29"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="36">
         <v>151</v>
       </c>
-      <c r="C9" s="36" t="n">
+      <c r="C9" s="36">
         <v>5</v>
       </c>
-      <c r="D9" s="36" t="n">
+      <c r="D9" s="36">
         <v>9</v>
       </c>
-      <c r="E9" s="36" t="n">
+      <c r="E9" s="36">
         <v>18</v>
       </c>
-      <c r="F9" s="36" t="n">
+      <c r="F9" s="36">
         <v>11</v>
       </c>
-      <c r="G9" s="36" t="n">
+      <c r="G9" s="36">
         <v>23</v>
       </c>
-      <c r="H9" s="36" t="n">
+      <c r="H9" s="36">
         <v>21</v>
       </c>
-      <c r="I9" s="36" t="n">
+      <c r="I9" s="36">
         <v>12</v>
       </c>
-      <c r="J9" s="36" t="n">
+      <c r="J9" s="36">
         <v>11</v>
       </c>
-      <c r="K9" s="36" t="n">
+      <c r="K9" s="36">
         <v>12</v>
       </c>
-      <c r="L9" s="36" t="n">
+      <c r="L9" s="36">
         <v>9</v>
       </c>
-      <c r="M9" s="36" t="n">
+      <c r="M9" s="36">
         <v>15</v>
       </c>
-      <c r="N9" s="36" t="n">
+      <c r="N9" s="36">
         <v>5</v>
       </c>
-      <c r="P9" s="37" t="n"/>
-      <c r="Q9" s="29" t="n"/>
-      <c r="R9" s="32" t="n"/>
-      <c r="S9" s="29" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="3">
-      <c r="A10" s="20" t="inlineStr">
-        <is>
-          <t>6. el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B10" s="35" t="n">
+      <c r="P9" s="37"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="29"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="35">
         <v>276</v>
       </c>
-      <c r="C10" s="35" t="n">
+      <c r="C10" s="35">
         <v>20</v>
       </c>
-      <c r="D10" s="35" t="n">
+      <c r="D10" s="35">
         <v>19</v>
       </c>
-      <c r="E10" s="35" t="n">
+      <c r="E10" s="35">
         <v>25</v>
       </c>
-      <c r="F10" s="35" t="n">
+      <c r="F10" s="35">
         <v>18</v>
       </c>
-      <c r="G10" s="35" t="n">
+      <c r="G10" s="35">
         <v>26</v>
       </c>
-      <c r="H10" s="35" t="n">
+      <c r="H10" s="35">
         <v>33</v>
       </c>
-      <c r="I10" s="35" t="n">
+      <c r="I10" s="35">
         <v>27</v>
       </c>
-      <c r="J10" s="35" t="n">
+      <c r="J10" s="35">
         <v>12</v>
       </c>
-      <c r="K10" s="35" t="n">
+      <c r="K10" s="35">
         <v>32</v>
       </c>
-      <c r="L10" s="35" t="n">
+      <c r="L10" s="35">
         <v>25</v>
       </c>
-      <c r="M10" s="35" t="n">
+      <c r="M10" s="35">
         <v>22</v>
       </c>
-      <c r="N10" s="35" t="n">
+      <c r="N10" s="35">
         <v>17</v>
       </c>
-      <c r="P10" s="37" t="n"/>
-      <c r="Q10" s="29" t="n"/>
-      <c r="R10" s="32" t="n"/>
-      <c r="S10" s="29" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="3">
-      <c r="A11" s="19" t="inlineStr">
-        <is>
-          <t>7. l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B11" s="36" t="n">
+      <c r="P10" s="37"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="29"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="36">
         <v>194</v>
       </c>
-      <c r="C11" s="36" t="n">
+      <c r="C11" s="36">
         <v>33</v>
       </c>
-      <c r="D11" s="36" t="n">
+      <c r="D11" s="36">
         <v>19</v>
       </c>
-      <c r="E11" s="36" t="n">
+      <c r="E11" s="36">
         <v>14</v>
       </c>
-      <c r="F11" s="36" t="n">
+      <c r="F11" s="36">
         <v>9</v>
       </c>
-      <c r="G11" s="36" t="n">
+      <c r="G11" s="36">
         <v>30</v>
       </c>
-      <c r="H11" s="36" t="n">
+      <c r="H11" s="36">
         <v>13</v>
       </c>
-      <c r="I11" s="36" t="n">
+      <c r="I11" s="36">
         <v>16</v>
       </c>
-      <c r="J11" s="36" t="n">
+      <c r="J11" s="36">
         <v>13</v>
       </c>
-      <c r="K11" s="36" t="n">
+      <c r="K11" s="36">
         <v>14</v>
       </c>
-      <c r="L11" s="36" t="n">
+      <c r="L11" s="36">
         <v>16</v>
       </c>
-      <c r="M11" s="36" t="n">
+      <c r="M11" s="36">
         <v>6</v>
       </c>
-      <c r="N11" s="36" t="n">
+      <c r="N11" s="36">
         <v>11</v>
       </c>
-      <c r="P11" s="37" t="n"/>
-      <c r="Q11" s="29" t="n"/>
-      <c r="R11" s="32" t="n"/>
-      <c r="S11" s="29" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="3">
-      <c r="A12" s="20" t="inlineStr">
-        <is>
-          <t>8. Patraix</t>
-        </is>
-      </c>
-      <c r="B12" s="35" t="n">
+      <c r="P11" s="37"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="29"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="35">
         <v>291</v>
       </c>
-      <c r="C12" s="35" t="n">
+      <c r="C12" s="35">
         <v>31</v>
       </c>
-      <c r="D12" s="35" t="n">
+      <c r="D12" s="35">
         <v>33</v>
       </c>
-      <c r="E12" s="35" t="n">
+      <c r="E12" s="35">
         <v>11</v>
       </c>
-      <c r="F12" s="35" t="n">
+      <c r="F12" s="35">
         <v>12</v>
       </c>
-      <c r="G12" s="35" t="n">
+      <c r="G12" s="35">
         <v>21</v>
       </c>
-      <c r="H12" s="35" t="n">
+      <c r="H12" s="35">
         <v>31</v>
       </c>
-      <c r="I12" s="35" t="n">
+      <c r="I12" s="35">
         <v>28</v>
       </c>
-      <c r="J12" s="35" t="n">
+      <c r="J12" s="35">
         <v>21</v>
       </c>
-      <c r="K12" s="35" t="n">
+      <c r="K12" s="35">
         <v>34</v>
       </c>
-      <c r="L12" s="35" t="n">
+      <c r="L12" s="35">
         <v>20</v>
       </c>
-      <c r="M12" s="35" t="n">
+      <c r="M12" s="35">
         <v>30</v>
       </c>
-      <c r="N12" s="35" t="n">
+      <c r="N12" s="35">
         <v>19</v>
       </c>
-      <c r="P12" s="37" t="n"/>
-      <c r="Q12" s="29" t="n"/>
-      <c r="R12" s="32" t="n"/>
-      <c r="S12" s="29" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="3">
-      <c r="A13" s="19" t="inlineStr">
-        <is>
-          <t>9. Jesús</t>
-        </is>
-      </c>
-      <c r="B13" s="36" t="n">
+      <c r="P12" s="37"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="29"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36">
         <v>181</v>
       </c>
-      <c r="C13" s="36" t="n">
+      <c r="C13" s="36">
         <v>20</v>
       </c>
-      <c r="D13" s="36" t="n">
+      <c r="D13" s="36">
         <v>11</v>
       </c>
-      <c r="E13" s="36" t="n">
+      <c r="E13" s="36">
         <v>19</v>
       </c>
-      <c r="F13" s="36" t="n">
+      <c r="F13" s="36">
         <v>11</v>
       </c>
-      <c r="G13" s="36" t="n">
+      <c r="G13" s="36">
         <v>17</v>
       </c>
-      <c r="H13" s="36" t="n">
+      <c r="H13" s="36">
         <v>20</v>
       </c>
-      <c r="I13" s="36" t="n">
+      <c r="I13" s="36">
         <v>13</v>
       </c>
-      <c r="J13" s="36" t="n">
+      <c r="J13" s="36">
         <v>11</v>
       </c>
-      <c r="K13" s="36" t="n">
+      <c r="K13" s="36">
         <v>14</v>
       </c>
-      <c r="L13" s="36" t="n">
+      <c r="L13" s="36">
         <v>21</v>
       </c>
-      <c r="M13" s="36" t="n">
+      <c r="M13" s="36">
         <v>11</v>
       </c>
-      <c r="N13" s="36" t="n">
+      <c r="N13" s="36">
         <v>13</v>
       </c>
-      <c r="P13" s="37" t="n"/>
-      <c r="Q13" s="29" t="n"/>
-      <c r="R13" s="32" t="n"/>
-      <c r="S13" s="29" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="3">
-      <c r="A14" s="20" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B14" s="35" t="n">
+      <c r="P13" s="37"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="29"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="35">
         <v>294</v>
       </c>
-      <c r="C14" s="35" t="n">
+      <c r="C14" s="35">
         <v>30</v>
       </c>
-      <c r="D14" s="35" t="n">
+      <c r="D14" s="35">
         <v>22</v>
       </c>
-      <c r="E14" s="35" t="n">
+      <c r="E14" s="35">
         <v>22</v>
       </c>
-      <c r="F14" s="35" t="n">
+      <c r="F14" s="35">
         <v>22</v>
       </c>
-      <c r="G14" s="35" t="n">
+      <c r="G14" s="35">
         <v>30</v>
       </c>
-      <c r="H14" s="35" t="n">
+      <c r="H14" s="35">
         <v>25</v>
       </c>
-      <c r="I14" s="35" t="n">
+      <c r="I14" s="35">
         <v>29</v>
       </c>
-      <c r="J14" s="35" t="n">
+      <c r="J14" s="35">
         <v>18</v>
       </c>
-      <c r="K14" s="35" t="n">
+      <c r="K14" s="35">
         <v>28</v>
       </c>
-      <c r="L14" s="35" t="n">
+      <c r="L14" s="35">
         <v>35</v>
       </c>
-      <c r="M14" s="35" t="n">
+      <c r="M14" s="35">
         <v>18</v>
       </c>
-      <c r="N14" s="35" t="n">
+      <c r="N14" s="35">
         <v>15</v>
       </c>
-      <c r="P14" s="37" t="n"/>
-      <c r="Q14" s="29" t="n"/>
-      <c r="R14" s="32" t="n"/>
-      <c r="S14" s="29" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="3">
-      <c r="A15" s="19" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B15" s="36" t="n">
+      <c r="P14" s="37"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="29"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36">
         <v>293</v>
       </c>
-      <c r="C15" s="36" t="n">
+      <c r="C15" s="36">
         <v>23</v>
       </c>
-      <c r="D15" s="36" t="n">
+      <c r="D15" s="36">
         <v>35</v>
       </c>
-      <c r="E15" s="36" t="n">
+      <c r="E15" s="36">
         <v>20</v>
       </c>
-      <c r="F15" s="36" t="n">
+      <c r="F15" s="36">
         <v>18</v>
       </c>
-      <c r="G15" s="36" t="n">
+      <c r="G15" s="36">
         <v>26</v>
       </c>
-      <c r="H15" s="36" t="n">
+      <c r="H15" s="36">
         <v>27</v>
       </c>
-      <c r="I15" s="36" t="n">
+      <c r="I15" s="36">
         <v>25</v>
       </c>
-      <c r="J15" s="36" t="n">
+      <c r="J15" s="36">
         <v>12</v>
       </c>
-      <c r="K15" s="36" t="n">
+      <c r="K15" s="36">
         <v>35</v>
       </c>
-      <c r="L15" s="36" t="n">
+      <c r="L15" s="36">
         <v>29</v>
       </c>
-      <c r="M15" s="36" t="n">
+      <c r="M15" s="36">
         <v>18</v>
       </c>
-      <c r="N15" s="36" t="n">
+      <c r="N15" s="36">
         <v>25</v>
       </c>
-      <c r="P15" s="37" t="n"/>
-      <c r="Q15" s="29" t="n"/>
-      <c r="R15" s="32" t="n"/>
-      <c r="S15" s="29" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="3">
-      <c r="A16" s="20" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B16" s="35" t="n">
+      <c r="P15" s="37"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="29"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="35">
         <v>204</v>
       </c>
-      <c r="C16" s="35" t="n">
+      <c r="C16" s="35">
         <v>18</v>
       </c>
-      <c r="D16" s="35" t="n">
+      <c r="D16" s="35">
         <v>28</v>
       </c>
-      <c r="E16" s="35" t="n">
+      <c r="E16" s="35">
         <v>18</v>
       </c>
-      <c r="F16" s="35" t="n">
+      <c r="F16" s="35">
         <v>16</v>
       </c>
-      <c r="G16" s="35" t="n">
+      <c r="G16" s="35">
         <v>18</v>
       </c>
-      <c r="H16" s="35" t="n">
+      <c r="H16" s="35">
         <v>25</v>
       </c>
-      <c r="I16" s="35" t="n">
+      <c r="I16" s="35">
         <v>11</v>
       </c>
-      <c r="J16" s="35" t="n">
+      <c r="J16" s="35">
         <v>6</v>
       </c>
-      <c r="K16" s="35" t="n">
+      <c r="K16" s="35">
         <v>14</v>
       </c>
-      <c r="L16" s="35" t="n">
+      <c r="L16" s="35">
         <v>19</v>
       </c>
-      <c r="M16" s="35" t="n">
+      <c r="M16" s="35">
         <v>19</v>
       </c>
-      <c r="N16" s="35" t="n">
+      <c r="N16" s="35">
         <v>12</v>
       </c>
-      <c r="P16" s="37" t="n"/>
-      <c r="Q16" s="29" t="n"/>
-      <c r="R16" s="32" t="n"/>
-      <c r="S16" s="29" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="3">
-      <c r="A17" s="19" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
-      </c>
-      <c r="B17" s="36" t="n">
+      <c r="P16" s="37"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="29"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36">
         <v>204</v>
       </c>
-      <c r="C17" s="36" t="n">
+      <c r="C17" s="36">
         <v>14</v>
       </c>
-      <c r="D17" s="36" t="n">
+      <c r="D17" s="36">
         <v>18</v>
       </c>
-      <c r="E17" s="36" t="n">
+      <c r="E17" s="36">
         <v>12</v>
       </c>
-      <c r="F17" s="36" t="n">
+      <c r="F17" s="36">
         <v>22</v>
       </c>
-      <c r="G17" s="36" t="n">
+      <c r="G17" s="36">
         <v>20</v>
       </c>
-      <c r="H17" s="36" t="n">
+      <c r="H17" s="36">
         <v>24</v>
       </c>
-      <c r="I17" s="36" t="n">
+      <c r="I17" s="36">
         <v>29</v>
       </c>
-      <c r="J17" s="36" t="n">
+      <c r="J17" s="36">
         <v>17</v>
       </c>
-      <c r="K17" s="36" t="n">
+      <c r="K17" s="36">
         <v>22</v>
       </c>
-      <c r="L17" s="36" t="n">
+      <c r="L17" s="36">
         <v>7</v>
       </c>
-      <c r="M17" s="36" t="n">
+      <c r="M17" s="36">
         <v>9</v>
       </c>
-      <c r="N17" s="36" t="n">
+      <c r="N17" s="36">
         <v>10</v>
       </c>
-      <c r="P17" s="37" t="n"/>
-      <c r="Q17" s="29" t="n"/>
-      <c r="R17" s="32" t="n"/>
-      <c r="S17" s="29" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="3">
-      <c r="A18" s="20" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B18" s="35" t="n">
+      <c r="P17" s="37"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="29"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="35">
         <v>153</v>
       </c>
-      <c r="C18" s="35" t="n">
+      <c r="C18" s="35">
         <v>10</v>
       </c>
-      <c r="D18" s="35" t="n">
+      <c r="D18" s="35">
         <v>10</v>
       </c>
-      <c r="E18" s="35" t="n">
+      <c r="E18" s="35">
         <v>13</v>
       </c>
-      <c r="F18" s="35" t="n">
+      <c r="F18" s="35">
         <v>12</v>
       </c>
-      <c r="G18" s="35" t="n">
+      <c r="G18" s="35">
         <v>17</v>
       </c>
-      <c r="H18" s="35" t="n">
+      <c r="H18" s="35">
         <v>15</v>
       </c>
-      <c r="I18" s="35" t="n">
+      <c r="I18" s="35">
         <v>19</v>
       </c>
-      <c r="J18" s="35" t="n">
+      <c r="J18" s="35">
         <v>8</v>
       </c>
-      <c r="K18" s="35" t="n">
+      <c r="K18" s="35">
         <v>12</v>
       </c>
-      <c r="L18" s="35" t="n">
+      <c r="L18" s="35">
         <v>16</v>
       </c>
-      <c r="M18" s="35" t="n">
+      <c r="M18" s="35">
         <v>15</v>
       </c>
-      <c r="N18" s="35" t="n">
+      <c r="N18" s="35">
         <v>6</v>
       </c>
-      <c r="P18" s="37" t="n"/>
-      <c r="Q18" s="29" t="n"/>
-      <c r="R18" s="32" t="n"/>
-      <c r="S18" s="29" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="3">
-      <c r="A19" s="19" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
-      </c>
-      <c r="B19" s="36" t="n">
+      <c r="P18" s="37"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="29"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="36">
         <v>129</v>
       </c>
-      <c r="C19" s="36" t="n">
+      <c r="C19" s="36">
         <v>7</v>
       </c>
-      <c r="D19" s="36" t="n">
+      <c r="D19" s="36">
         <v>8</v>
       </c>
-      <c r="E19" s="36" t="n">
+      <c r="E19" s="36">
         <v>8</v>
       </c>
-      <c r="F19" s="36" t="n">
+      <c r="F19" s="36">
         <v>12</v>
       </c>
-      <c r="G19" s="36" t="n">
+      <c r="G19" s="36">
         <v>12</v>
       </c>
-      <c r="H19" s="36" t="n">
+      <c r="H19" s="36">
         <v>15</v>
       </c>
-      <c r="I19" s="36" t="n">
+      <c r="I19" s="36">
         <v>13</v>
       </c>
-      <c r="J19" s="36" t="n">
+      <c r="J19" s="36">
         <v>5</v>
       </c>
-      <c r="K19" s="36" t="n">
+      <c r="K19" s="36">
         <v>16</v>
       </c>
-      <c r="L19" s="36" t="n">
+      <c r="L19" s="36">
         <v>10</v>
       </c>
-      <c r="M19" s="36" t="n">
+      <c r="M19" s="36">
         <v>15</v>
       </c>
-      <c r="N19" s="36" t="n">
+      <c r="N19" s="36">
         <v>8</v>
       </c>
-      <c r="P19" s="37" t="n"/>
-      <c r="Q19" s="29" t="n"/>
-      <c r="R19" s="32" t="n"/>
-      <c r="S19" s="29" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="3">
-      <c r="A20" s="20" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
-      </c>
-      <c r="B20" s="35" t="n">
+      <c r="P19" s="37"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="29"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="35">
         <v>97</v>
       </c>
-      <c r="C20" s="35" t="n">
+      <c r="C20" s="35">
         <v>1</v>
       </c>
-      <c r="D20" s="35" t="n">
+      <c r="D20" s="35">
         <v>13</v>
       </c>
-      <c r="E20" s="35" t="n">
+      <c r="E20" s="35">
         <v>6</v>
       </c>
-      <c r="F20" s="35" t="n">
+      <c r="F20" s="35">
         <v>9</v>
       </c>
-      <c r="G20" s="35" t="n">
+      <c r="G20" s="35">
         <v>14</v>
       </c>
-      <c r="H20" s="35" t="n">
+      <c r="H20" s="35">
         <v>14</v>
       </c>
-      <c r="I20" s="35" t="n">
+      <c r="I20" s="35">
         <v>7</v>
       </c>
-      <c r="J20" s="35" t="n">
+      <c r="J20" s="35">
         <v>3</v>
       </c>
-      <c r="K20" s="35" t="n">
+      <c r="K20" s="35">
         <v>13</v>
       </c>
-      <c r="L20" s="35" t="n">
+      <c r="L20" s="35">
         <v>9</v>
       </c>
-      <c r="M20" s="35" t="n">
+      <c r="M20" s="35">
         <v>2</v>
       </c>
-      <c r="N20" s="35" t="n">
+      <c r="N20" s="35">
         <v>6</v>
       </c>
-      <c r="P20" s="37" t="n"/>
-      <c r="Q20" s="29" t="n"/>
-      <c r="R20" s="32" t="n"/>
-      <c r="S20" s="29" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="3">
-      <c r="A21" s="19" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B21" s="36" t="n">
+      <c r="P20" s="37"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="29"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="36">
         <v>62</v>
       </c>
-      <c r="C21" s="36" t="n">
+      <c r="C21" s="36">
         <v>1</v>
       </c>
-      <c r="D21" s="36" t="n">
+      <c r="D21" s="36">
         <v>7</v>
       </c>
-      <c r="E21" s="36" t="n">
+      <c r="E21" s="36">
         <v>8</v>
       </c>
-      <c r="F21" s="36" t="n">
+      <c r="F21" s="36">
         <v>0</v>
       </c>
-      <c r="G21" s="36" t="n">
+      <c r="G21" s="36">
         <v>6</v>
       </c>
-      <c r="H21" s="36" t="n">
+      <c r="H21" s="36">
         <v>7</v>
       </c>
-      <c r="I21" s="36" t="n">
+      <c r="I21" s="36">
         <v>4</v>
       </c>
-      <c r="J21" s="36" t="n">
+      <c r="J21" s="36">
         <v>2</v>
       </c>
-      <c r="K21" s="36" t="n">
+      <c r="K21" s="36">
         <v>10</v>
       </c>
-      <c r="L21" s="36" t="n">
+      <c r="L21" s="36">
         <v>8</v>
       </c>
-      <c r="M21" s="36" t="n">
+      <c r="M21" s="36">
         <v>3</v>
       </c>
-      <c r="N21" s="36" t="n">
+      <c r="N21" s="36">
         <v>6</v>
       </c>
-      <c r="P21" s="37" t="n"/>
-      <c r="Q21" s="29" t="n"/>
-      <c r="R21" s="32" t="n"/>
-      <c r="S21" s="29" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="3">
-      <c r="A22" s="20" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B22" s="35" t="n">
+      <c r="P21" s="37"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="29"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="35">
         <v>57</v>
       </c>
-      <c r="C22" s="35" t="n">
+      <c r="C22" s="35">
         <v>10</v>
       </c>
-      <c r="D22" s="35" t="n">
+      <c r="D22" s="35">
         <v>2</v>
       </c>
-      <c r="E22" s="35" t="n">
+      <c r="E22" s="35">
         <v>4</v>
       </c>
-      <c r="F22" s="35" t="n">
+      <c r="F22" s="35">
         <v>7</v>
       </c>
-      <c r="G22" s="35" t="n">
+      <c r="G22" s="35">
         <v>12</v>
       </c>
-      <c r="H22" s="35" t="n">
+      <c r="H22" s="35">
         <v>8</v>
       </c>
-      <c r="I22" s="35" t="n">
+      <c r="I22" s="35">
         <v>5</v>
       </c>
-      <c r="J22" s="35" t="n">
+      <c r="J22" s="35">
         <v>0</v>
       </c>
-      <c r="K22" s="35" t="n">
+      <c r="K22" s="35">
         <v>3</v>
       </c>
-      <c r="L22" s="35" t="n">
+      <c r="L22" s="35">
         <v>1</v>
       </c>
-      <c r="M22" s="35" t="n">
+      <c r="M22" s="35">
         <v>1</v>
       </c>
-      <c r="N22" s="35" t="n">
+      <c r="N22" s="35">
         <v>4</v>
       </c>
-      <c r="P22" s="37" t="n"/>
-      <c r="Q22" s="29" t="n"/>
-      <c r="R22" s="32" t="n"/>
-      <c r="S22" s="29" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="3">
-      <c r="A23" s="19" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B23" s="36" t="n">
+      <c r="P22" s="37"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="29"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="36">
         <v>79</v>
       </c>
-      <c r="C23" s="36" t="n">
+      <c r="C23" s="36">
         <v>2</v>
       </c>
-      <c r="D23" s="36" t="n">
+      <c r="D23" s="36">
         <v>6</v>
       </c>
-      <c r="E23" s="36" t="n">
+      <c r="E23" s="36">
         <v>7</v>
       </c>
-      <c r="F23" s="36" t="n">
+      <c r="F23" s="36">
         <v>6</v>
       </c>
-      <c r="G23" s="36" t="n">
+      <c r="G23" s="36">
         <v>7</v>
       </c>
-      <c r="H23" s="36" t="n">
+      <c r="H23" s="36">
         <v>11</v>
       </c>
-      <c r="I23" s="36" t="n">
+      <c r="I23" s="36">
         <v>9</v>
       </c>
-      <c r="J23" s="36" t="n">
+      <c r="J23" s="36">
         <v>10</v>
       </c>
-      <c r="K23" s="36" t="n">
+      <c r="K23" s="36">
         <v>5</v>
       </c>
-      <c r="L23" s="36" t="n">
+      <c r="L23" s="36">
         <v>7</v>
       </c>
-      <c r="M23" s="36" t="n">
+      <c r="M23" s="36">
         <v>7</v>
       </c>
-      <c r="N23" s="36" t="n">
+      <c r="N23" s="36">
         <v>2</v>
       </c>
-      <c r="P23" s="37" t="n"/>
-      <c r="Q23" s="29" t="n"/>
-      <c r="R23" s="32" t="n"/>
-      <c r="S23" s="29" t="n"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="3">
-      <c r="A24" s="20" t="inlineStr">
-        <is>
-          <t>No consta</t>
-        </is>
-      </c>
-      <c r="B24" s="35" t="n">
+      <c r="P23" s="37"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="29"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="35">
         <v>0</v>
       </c>
-      <c r="C24" s="35" t="n">
+      <c r="C24" s="35">
         <v>0</v>
       </c>
-      <c r="D24" s="35" t="n">
+      <c r="D24" s="35">
         <v>0</v>
       </c>
-      <c r="E24" s="35" t="n">
+      <c r="E24" s="35">
         <v>0</v>
       </c>
-      <c r="F24" s="35" t="n">
+      <c r="F24" s="35">
         <v>0</v>
       </c>
-      <c r="G24" s="35" t="n">
+      <c r="G24" s="35">
         <v>0</v>
       </c>
-      <c r="H24" s="35" t="n">
+      <c r="H24" s="35">
         <v>0</v>
       </c>
-      <c r="I24" s="35" t="n">
+      <c r="I24" s="35">
         <v>0</v>
       </c>
-      <c r="J24" s="35" t="n">
+      <c r="J24" s="35">
         <v>0</v>
       </c>
-      <c r="K24" s="35" t="n">
+      <c r="K24" s="35">
         <v>0</v>
       </c>
-      <c r="L24" s="35" t="n">
+      <c r="L24" s="35">
         <v>0</v>
       </c>
-      <c r="M24" s="35" t="n">
+      <c r="M24" s="35">
         <v>0</v>
       </c>
-      <c r="N24" s="35" t="n">
+      <c r="N24" s="35">
         <v>0</v>
       </c>
-      <c r="P24" s="37" t="n"/>
-      <c r="Q24" s="29" t="n"/>
-      <c r="R24" s="32" t="n"/>
-      <c r="S24" s="29" t="n"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="3">
-      <c r="A25" s="40" t="inlineStr">
-        <is>
-          <t>Toneladas recogidas (*)</t>
-        </is>
-      </c>
-      <c r="B25" s="41" t="n">
-        <v>2306.1</v>
-      </c>
-      <c r="C25" s="41" t="n">
+      <c r="P24" s="37"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="29"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="41">
+        <v>2306.1000000000004</v>
+      </c>
+      <c r="C25" s="41">
         <v>79.92</v>
       </c>
-      <c r="D25" s="41" t="n">
+      <c r="D25" s="41">
         <v>260.3</v>
       </c>
-      <c r="E25" s="41" t="n">
-        <v>160.58</v>
-      </c>
-      <c r="F25" s="41" t="n">
+      <c r="E25" s="41">
+        <v>160.58000000000001</v>
+      </c>
+      <c r="F25" s="41">
         <v>227.48</v>
       </c>
-      <c r="G25" s="41" t="n">
+      <c r="G25" s="41">
         <v>477.02</v>
       </c>
-      <c r="H25" s="41" t="n">
+      <c r="H25" s="41">
         <v>170.7</v>
       </c>
-      <c r="I25" s="41" t="n">
+      <c r="I25" s="41">
         <v>144.78</v>
       </c>
-      <c r="J25" s="41" t="n">
+      <c r="J25" s="41">
         <v>200.06</v>
       </c>
-      <c r="K25" s="41" t="n">
+      <c r="K25" s="41">
         <v>86.66</v>
       </c>
-      <c r="L25" s="41" t="n">
+      <c r="L25" s="41">
         <v>130.38</v>
       </c>
-      <c r="M25" s="41" t="n">
+      <c r="M25" s="41">
         <v>122.48</v>
       </c>
-      <c r="N25" s="41" t="n">
+      <c r="N25" s="41">
         <v>245.74</v>
       </c>
-      <c r="P25" s="37" t="n"/>
-      <c r="Q25" s="29" t="n"/>
-      <c r="R25" s="32" t="n"/>
-      <c r="S25" s="29" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="9" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Gestión Sostenible de Residuos Urbanos y Limpieza del Espacio Público. Ayuntamiento de València. (*) EMTRE - Entidad Metropolitana para el Tratamiento de Residuos.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="30" t="n"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="29"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="30"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="63" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="B4:N4" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja72">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja72"/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="15.7109375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="17.7109375" customWidth="1" style="3" min="2" max="3"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="3">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>4. Recogida gratuita de muebles y objetos según mes. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="n"/>
-      <c r="C1" s="6" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="n"/>
-      <c r="B2" s="12" t="n"/>
-      <c r="C2" s="12" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="3">
-      <c r="A3" s="14" t="n"/>
-      <c r="B3" s="17" t="inlineStr">
-        <is>
-          <t>Llamadas recibidas</t>
-        </is>
-      </c>
-      <c r="C3" s="17" t="inlineStr">
-        <is>
-          <t>Toneladas recogidas</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="44" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="48" t="n">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="48">
         <v>76002</v>
       </c>
-      <c r="C4" s="54" t="n">
-        <v>11573.02</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="39" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="B5" s="36" t="n">
+      <c r="C4" s="54">
+        <v>11573.019999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="36">
         <v>5387</v>
       </c>
-      <c r="C5" s="41" t="n">
+      <c r="C5" s="41">
         <v>874.62</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="38" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="B6" s="35" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="35">
         <v>5207</v>
       </c>
-      <c r="C6" s="43" t="n">
-        <v>832.6800000000001</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="39" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="B7" s="36" t="n">
+      <c r="C6" s="43">
+        <v>832.68000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="36">
         <v>5304</v>
       </c>
-      <c r="C7" s="41" t="n">
+      <c r="C7" s="41">
         <v>914.14</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="38" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="B8" s="35" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="35">
         <v>5559</v>
       </c>
-      <c r="C8" s="43" t="n">
+      <c r="C8" s="43">
         <v>887.98</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="3">
-      <c r="A9" s="39" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="B9" s="36" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="36">
         <v>6543</v>
       </c>
-      <c r="C9" s="41" t="n">
-        <v>988.6399999999999</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="3">
-      <c r="A10" s="38" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="B10" s="35" t="n">
+      <c r="C9" s="41">
+        <v>988.63999999999987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="35">
         <v>6646</v>
       </c>
-      <c r="C10" s="43" t="n">
+      <c r="C10" s="43">
         <v>1041</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="3">
-      <c r="A11" s="39" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="B11" s="36" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="36">
         <v>7413</v>
       </c>
-      <c r="C11" s="41" t="n">
-        <v>1124.6</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="3">
-      <c r="A12" s="38" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="B12" s="35" t="n">
+      <c r="C11" s="41">
+        <v>1124.5999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="35">
         <v>6917</v>
       </c>
-      <c r="C12" s="43" t="n">
+      <c r="C12" s="43">
         <v>1054.58</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="3">
-      <c r="A13" s="39" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="B13" s="36" t="n">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="36">
         <v>7435</v>
       </c>
-      <c r="C13" s="41" t="n">
+      <c r="C13" s="41">
         <v>1024.48</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="3">
-      <c r="A14" s="38" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="B14" s="35" t="n">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="35">
         <v>6728</v>
       </c>
-      <c r="C14" s="43" t="n">
+      <c r="C14" s="43">
         <v>977.3</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="3">
-      <c r="A15" s="39" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="B15" s="36" t="n">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="36">
         <v>7178</v>
       </c>
-      <c r="C15" s="41" t="n">
+      <c r="C15" s="41">
         <v>945.36</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="3">
-      <c r="A16" s="38" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-      <c r="B16" s="35" t="n">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="35">
         <v>5685</v>
       </c>
-      <c r="C16" s="43" t="n">
+      <c r="C16" s="43">
         <v>907.6400000000001</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="9" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Gestión Sostenible de Residuos Urbanos y Limpieza del Espacio Público. Ayuntamiento de València.</t>
-        </is>
-      </c>
-      <c r="B17" s="9" t="n"/>
-      <c r="C17" s="9" t="n"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja74">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="20.7109375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="3" min="2" max="12"/>
-    <col width="12.7109375" customWidth="1" style="1" min="13" max="13"/>
-    <col width="11.42578125" customWidth="1" style="1" min="14" max="14"/>
-    <col width="11.42578125" customWidth="1" style="2" min="15" max="16384"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="1"/>
+    <col min="15" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="3">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>1. Mobiliario urbano para la recogida de residuos sólidos. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="12" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="n"/>
-      <c r="B2" s="12" t="n"/>
-      <c r="C2" s="12" t="n"/>
-      <c r="D2" s="12" t="n"/>
-      <c r="E2" s="12" t="n"/>
-      <c r="F2" s="12" t="n"/>
-      <c r="G2" s="12" t="n"/>
-      <c r="H2" s="12" t="n"/>
-      <c r="I2" s="12" t="n"/>
-      <c r="J2" s="12" t="n"/>
-      <c r="K2" s="12" t="n"/>
-      <c r="L2" s="12" t="n"/>
-    </row>
-    <row r="3" ht="45" customHeight="1" s="3">
-      <c r="A3" s="14" t="n"/>
-      <c r="B3" s="15" t="inlineStr">
-        <is>
-          <t>Papeleras</t>
-        </is>
-      </c>
-      <c r="C3" s="17" t="inlineStr">
-        <is>
-          <t>Papeleras/
-1.000 hab</t>
-        </is>
-      </c>
-      <c r="D3" s="17" t="inlineStr">
-        <is>
-          <t>Contenedores Basura (RU)</t>
-        </is>
-      </c>
-      <c r="E3" s="17" t="inlineStr">
-        <is>
-          <t>Cont. Basura (RU)/
-1.000 hab</t>
-        </is>
-      </c>
-      <c r="F3" s="17" t="inlineStr">
-        <is>
-          <t>Contenedores Basura Orgánica</t>
-        </is>
-      </c>
-      <c r="G3" s="17" t="inlineStr">
-        <is>
-          <t>Cont. Basura Orgánica/
-1.000 hab</t>
-        </is>
-      </c>
-      <c r="H3" s="15" t="inlineStr">
-        <is>
-          <t>Vidrio</t>
-        </is>
-      </c>
-      <c r="I3" s="15" t="inlineStr">
-        <is>
-          <t>Cartón</t>
-        </is>
-      </c>
-      <c r="J3" s="17" t="inlineStr">
-        <is>
-          <t>Envases ligeros</t>
-        </is>
-      </c>
-      <c r="K3" s="17" t="inlineStr">
-        <is>
-          <t>Aceite vegetal</t>
-        </is>
-      </c>
-      <c r="L3" s="17" t="inlineStr">
-        <is>
-          <t>Contenedores 
-de pilas</t>
-        </is>
-      </c>
-      <c r="M3" s="17" t="inlineStr">
-        <is>
-          <t>Ropa usada</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="44" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="B4" s="48" t="n">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="45">
         <v>16585</v>
       </c>
-      <c r="C4" s="55" t="n">
-        <v>20.22429024447795</v>
-      </c>
-      <c r="D4" s="48" t="n">
+      <c r="C4" s="46">
+        <v>20.224290244477952</v>
+      </c>
+      <c r="D4" s="45">
         <v>8685</v>
       </c>
-      <c r="E4" s="55" t="n">
-        <v>10.59077243131088</v>
-      </c>
-      <c r="F4" s="49" t="n">
+      <c r="E4" s="46">
+        <v>10.590772431310883</v>
+      </c>
+      <c r="F4" s="49">
         <v>4099</v>
       </c>
-      <c r="G4" s="56" t="n">
+      <c r="G4" s="50">
         <v>4.998454369135672</v>
       </c>
-      <c r="H4" s="48" t="n">
+      <c r="H4" s="45">
         <v>2792</v>
       </c>
-      <c r="I4" s="48" t="n">
+      <c r="I4" s="45">
         <v>3505</v>
       </c>
-      <c r="J4" s="48" t="n">
+      <c r="J4" s="45">
         <v>4125</v>
       </c>
-      <c r="K4" s="48" t="n">
+      <c r="K4" s="45">
         <v>394</v>
       </c>
-      <c r="L4" s="48" t="n">
+      <c r="L4" s="45">
         <v>159</v>
       </c>
-      <c r="M4" s="48" t="n">
+      <c r="M4" s="45">
         <v>300</v>
       </c>
-      <c r="N4" s="57" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="19" t="inlineStr">
-        <is>
-          <t>1. Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B5" s="36" t="n">
+      <c r="N4" s="34"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="16">
         <v>986</v>
       </c>
-      <c r="C5" s="58" t="n">
-        <v>33.55738960265464</v>
-      </c>
-      <c r="D5" s="36" t="n">
+      <c r="C5" s="24">
+        <v>33.557389602654638</v>
+      </c>
+      <c r="D5" s="16">
         <v>947</v>
       </c>
-      <c r="E5" s="58" t="n">
-        <v>32.23006891857398</v>
-      </c>
-      <c r="F5" s="23" t="n">
+      <c r="E5" s="24">
+        <v>32.230068918573984</v>
+      </c>
+      <c r="F5" s="23">
         <v>196</v>
       </c>
-      <c r="G5" s="59" t="n">
-        <v>6.670637284097677</v>
-      </c>
-      <c r="H5" s="36" t="n">
+      <c r="G5" s="51">
+        <v>6.6706372840976771</v>
+      </c>
+      <c r="H5" s="16">
         <v>83</v>
       </c>
-      <c r="I5" s="36" t="n">
+      <c r="I5" s="16">
         <v>173</v>
       </c>
-      <c r="J5" s="36" t="n">
+      <c r="J5" s="16">
         <v>201</v>
       </c>
-      <c r="K5" s="36" t="n">
+      <c r="K5" s="16">
         <v>11</v>
       </c>
-      <c r="L5" s="36" t="n">
+      <c r="L5" s="16">
         <v>10</v>
       </c>
-      <c r="M5" s="36" t="n">
+      <c r="M5" s="16">
         <v>7</v>
       </c>
-      <c r="N5" s="57" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="20" t="inlineStr">
-        <is>
-          <t>2. l'Eixample</t>
-        </is>
-      </c>
-      <c r="B6" s="35" t="n">
+      <c r="N5" s="34"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="13">
         <v>976</v>
       </c>
-      <c r="C6" s="57" t="n">
-        <v>22.13252301691687</v>
-      </c>
-      <c r="D6" s="35" t="n">
+      <c r="C6" s="34">
+        <v>22.132523016916867</v>
+      </c>
+      <c r="D6" s="13">
         <v>396</v>
       </c>
-      <c r="E6" s="57" t="n">
-        <v>8.979999092929384</v>
-      </c>
-      <c r="F6" s="22" t="n">
+      <c r="E6" s="34">
+        <v>8.9799990929293845</v>
+      </c>
+      <c r="F6" s="22">
         <v>218</v>
       </c>
-      <c r="G6" s="60" t="n">
-        <v>4.943534854188399</v>
-      </c>
-      <c r="H6" s="35" t="n">
+      <c r="G6" s="52">
+        <v>4.9435348541883988</v>
+      </c>
+      <c r="H6" s="13">
         <v>175</v>
       </c>
-      <c r="I6" s="35" t="n">
+      <c r="I6" s="13">
         <v>177</v>
       </c>
-      <c r="J6" s="35" t="n">
+      <c r="J6" s="13">
         <v>221</v>
       </c>
-      <c r="K6" s="35" t="n">
+      <c r="K6" s="13">
         <v>23</v>
       </c>
-      <c r="L6" s="35" t="n">
+      <c r="L6" s="13">
         <v>9</v>
       </c>
-      <c r="M6" s="35" t="n">
+      <c r="M6" s="13">
         <v>24</v>
       </c>
-      <c r="N6" s="57" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="19" t="inlineStr">
-        <is>
-          <t>3. Extramurs</t>
-        </is>
-      </c>
-      <c r="B7" s="36" t="n">
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="16">
         <v>763</v>
       </c>
-      <c r="C7" s="58" t="n">
-        <v>15.26335793874653</v>
-      </c>
-      <c r="D7" s="36" t="n">
+      <c r="C7" s="24">
+        <v>15.263357938746525</v>
+      </c>
+      <c r="D7" s="16">
         <v>432</v>
       </c>
-      <c r="E7" s="58" t="n">
-        <v>8.641901218268019</v>
-      </c>
-      <c r="F7" s="23" t="n">
+      <c r="E7" s="24">
+        <v>8.6419012182680195</v>
+      </c>
+      <c r="F7" s="23">
         <v>231</v>
       </c>
-      <c r="G7" s="59" t="n">
+      <c r="G7" s="51">
         <v>4.621016623657205</v>
       </c>
-      <c r="H7" s="36" t="n">
+      <c r="H7" s="16">
         <v>169</v>
       </c>
-      <c r="I7" s="36" t="n">
+      <c r="I7" s="16">
         <v>177</v>
       </c>
-      <c r="J7" s="36" t="n">
+      <c r="J7" s="16">
         <v>234</v>
       </c>
-      <c r="K7" s="36" t="n">
+      <c r="K7" s="16">
         <v>24</v>
       </c>
-      <c r="L7" s="36" t="n">
+      <c r="L7" s="16">
         <v>8</v>
       </c>
-      <c r="M7" s="36" t="n">
+      <c r="M7" s="16">
         <v>18</v>
       </c>
-      <c r="N7" s="57" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="20" t="inlineStr">
-        <is>
-          <t>4. Campanar</t>
-        </is>
-      </c>
-      <c r="B8" s="35" t="n">
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="13">
         <v>854</v>
       </c>
-      <c r="C8" s="57" t="n">
-        <v>21.14829810680633</v>
-      </c>
-      <c r="D8" s="35" t="n">
+      <c r="C8" s="34">
+        <v>21.148298106806333</v>
+      </c>
+      <c r="D8" s="13">
         <v>455</v>
       </c>
-      <c r="E8" s="57" t="n">
-        <v>11.26753587657715</v>
-      </c>
-      <c r="F8" s="18" t="n">
+      <c r="E8" s="34">
+        <v>11.267535876577146</v>
+      </c>
+      <c r="F8" s="18">
         <v>180</v>
       </c>
-      <c r="G8" s="57" t="n">
-        <v>4.457486720404146</v>
-      </c>
-      <c r="H8" s="35" t="n">
+      <c r="G8" s="34">
+        <v>4.4574867204041455</v>
+      </c>
+      <c r="H8" s="13">
         <v>151</v>
       </c>
-      <c r="I8" s="35" t="n">
+      <c r="I8" s="13">
         <v>153</v>
       </c>
-      <c r="J8" s="35" t="n">
+      <c r="J8" s="13">
         <v>183</v>
       </c>
-      <c r="K8" s="35" t="n">
+      <c r="K8" s="13">
         <v>26</v>
       </c>
-      <c r="L8" s="35" t="n">
+      <c r="L8" s="13">
         <v>7</v>
       </c>
-      <c r="M8" s="35" t="n">
+      <c r="M8" s="13">
         <v>20</v>
       </c>
-      <c r="N8" s="57" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="3">
-      <c r="A9" s="19" t="inlineStr">
-        <is>
-          <t>5. la Saïdia</t>
-        </is>
-      </c>
-      <c r="B9" s="36" t="n">
+      <c r="N8" s="34"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="16">
         <v>771</v>
       </c>
-      <c r="C9" s="58" t="n">
-        <v>16.08226778748879</v>
-      </c>
-      <c r="D9" s="36" t="n">
+      <c r="C9" s="24">
+        <v>16.082267787488789</v>
+      </c>
+      <c r="D9" s="16">
         <v>368</v>
       </c>
-      <c r="E9" s="58" t="n">
-        <v>7.676101875221627</v>
-      </c>
-      <c r="F9" s="21" t="n">
+      <c r="E9" s="24">
+        <v>7.6761018752216268</v>
+      </c>
+      <c r="F9" s="21">
         <v>206</v>
       </c>
-      <c r="G9" s="58" t="n">
-        <v>4.29694833232515</v>
-      </c>
-      <c r="H9" s="36" t="n">
+      <c r="G9" s="24">
+        <v>4.2969483323251501</v>
+      </c>
+      <c r="H9" s="16">
         <v>121</v>
       </c>
-      <c r="I9" s="36" t="n">
+      <c r="I9" s="16">
         <v>152</v>
       </c>
-      <c r="J9" s="36" t="n">
+      <c r="J9" s="16">
         <v>207</v>
       </c>
-      <c r="K9" s="36" t="n">
+      <c r="K9" s="16">
         <v>24</v>
       </c>
-      <c r="L9" s="36" t="n">
+      <c r="L9" s="16">
         <v>10</v>
       </c>
-      <c r="M9" s="36" t="n">
+      <c r="M9" s="16">
         <v>21</v>
       </c>
-      <c r="N9" s="57" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="3">
-      <c r="A10" s="20" t="inlineStr">
-        <is>
-          <t>6. el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B10" s="35" t="n">
+      <c r="N9" s="34"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="13">
         <v>766</v>
       </c>
-      <c r="C10" s="57" t="n">
-        <v>24.82982171799027</v>
-      </c>
-      <c r="D10" s="35" t="n">
+      <c r="C10" s="34">
+        <v>24.829821717990274</v>
+      </c>
+      <c r="D10" s="13">
         <v>384</v>
       </c>
-      <c r="E10" s="57" t="n">
-        <v>12.44732576985413</v>
-      </c>
-      <c r="F10" s="18" t="n">
+      <c r="E10" s="34">
+        <v>12.447325769854134</v>
+      </c>
+      <c r="F10" s="18">
         <v>159</v>
       </c>
-      <c r="G10" s="57" t="n">
-        <v>5.153970826580227</v>
-      </c>
-      <c r="H10" s="35" t="n">
+      <c r="G10" s="34">
+        <v>5.1539708265802266</v>
+      </c>
+      <c r="H10" s="13">
         <v>107</v>
       </c>
-      <c r="I10" s="35" t="n">
+      <c r="I10" s="13">
         <v>161</v>
       </c>
-      <c r="J10" s="35" t="n">
+      <c r="J10" s="13">
         <v>158</v>
       </c>
-      <c r="K10" s="35" t="n">
+      <c r="K10" s="13">
         <v>16</v>
       </c>
-      <c r="L10" s="35" t="n">
+      <c r="L10" s="13">
         <v>4</v>
       </c>
-      <c r="M10" s="35" t="n">
+      <c r="M10" s="13">
         <v>14</v>
       </c>
-      <c r="N10" s="57" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="3">
-      <c r="A11" s="19" t="inlineStr">
-        <is>
-          <t>7. l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B11" s="36" t="n">
+      <c r="N10" s="34"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="16">
         <v>859</v>
       </c>
-      <c r="C11" s="58" t="n">
+      <c r="C11" s="24">
         <v>17.00013853430703</v>
       </c>
-      <c r="D11" s="36" t="n">
+      <c r="D11" s="16">
         <v>348</v>
       </c>
-      <c r="E11" s="58" t="n">
-        <v>6.887134120999822</v>
-      </c>
-      <c r="F11" s="23" t="n">
+      <c r="E11" s="24">
+        <v>6.8871341209998223</v>
+      </c>
+      <c r="F11" s="23">
         <v>191</v>
       </c>
-      <c r="G11" s="59" t="n">
-        <v>3.78000752043381</v>
-      </c>
-      <c r="H11" s="36" t="n">
+      <c r="G11" s="51">
+        <v>3.7800075204338102</v>
+      </c>
+      <c r="H11" s="16">
         <v>166</v>
       </c>
-      <c r="I11" s="36" t="n">
+      <c r="I11" s="16">
         <v>172</v>
       </c>
-      <c r="J11" s="36" t="n">
+      <c r="J11" s="16">
         <v>193</v>
       </c>
-      <c r="K11" s="36" t="n">
+      <c r="K11" s="16">
         <v>26</v>
       </c>
-      <c r="L11" s="36" t="n">
+      <c r="L11" s="16">
         <v>10</v>
       </c>
-      <c r="M11" s="36" t="n">
+      <c r="M11" s="16">
         <v>18</v>
       </c>
-      <c r="N11" s="57" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="3">
-      <c r="A12" s="20" t="inlineStr">
-        <is>
-          <t>8. Patraix</t>
-        </is>
-      </c>
-      <c r="B12" s="35" t="n">
+      <c r="N11" s="34"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13">
         <v>1227</v>
       </c>
-      <c r="C12" s="57" t="n">
-        <v>20.84076433121019</v>
-      </c>
-      <c r="D12" s="35" t="n">
+      <c r="C12" s="34">
+        <v>20.840764331210192</v>
+      </c>
+      <c r="D12" s="13">
         <v>529</v>
       </c>
-      <c r="E12" s="57" t="n">
-        <v>8.985138004246284</v>
-      </c>
-      <c r="F12" s="22" t="n">
+      <c r="E12" s="34">
+        <v>8.9851380042462843</v>
+      </c>
+      <c r="F12" s="22">
         <v>261</v>
       </c>
-      <c r="G12" s="60" t="n">
-        <v>4.43312101910828</v>
-      </c>
-      <c r="H12" s="35" t="n">
+      <c r="G12" s="52">
+        <v>4.4331210191082802</v>
+      </c>
+      <c r="H12" s="13">
         <v>165</v>
       </c>
-      <c r="I12" s="35" t="n">
+      <c r="I12" s="13">
         <v>217</v>
       </c>
-      <c r="J12" s="35" t="n">
+      <c r="J12" s="13">
         <v>272</v>
       </c>
-      <c r="K12" s="35" t="n">
+      <c r="K12" s="13">
         <v>32</v>
       </c>
-      <c r="L12" s="35" t="n">
+      <c r="L12" s="13">
         <v>7</v>
       </c>
-      <c r="M12" s="35" t="n">
+      <c r="M12" s="13">
         <v>26</v>
       </c>
-      <c r="N12" s="57" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="3">
-      <c r="A13" s="19" t="inlineStr">
-        <is>
-          <t>9. Jesús</t>
-        </is>
-      </c>
-      <c r="B13" s="36" t="n">
+      <c r="N12" s="34"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="16">
         <v>706</v>
       </c>
-      <c r="C13" s="58" t="n">
-        <v>13.29980125651097</v>
-      </c>
-      <c r="D13" s="36" t="n">
+      <c r="C13" s="24">
+        <v>13.299801256510969</v>
+      </c>
+      <c r="D13" s="16">
         <v>383</v>
       </c>
-      <c r="E13" s="58" t="n">
+      <c r="E13" s="24">
         <v>7.215047990430171</v>
       </c>
-      <c r="F13" s="21" t="n">
+      <c r="F13" s="21">
         <v>222</v>
       </c>
-      <c r="G13" s="58" t="n">
-        <v>4.182090480092684</v>
-      </c>
-      <c r="H13" s="36" t="n">
+      <c r="G13" s="24">
+        <v>4.1820904800926844</v>
+      </c>
+      <c r="H13" s="16">
         <v>173</v>
       </c>
-      <c r="I13" s="36" t="n">
+      <c r="I13" s="16">
         <v>174</v>
       </c>
-      <c r="J13" s="36" t="n">
+      <c r="J13" s="16">
         <v>226</v>
       </c>
-      <c r="K13" s="36" t="n">
+      <c r="K13" s="16">
         <v>26</v>
       </c>
-      <c r="L13" s="36" t="n">
+      <c r="L13" s="16">
         <v>8</v>
       </c>
-      <c r="M13" s="36" t="n">
+      <c r="M13" s="16">
         <v>19</v>
       </c>
-      <c r="N13" s="57" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="3">
-      <c r="A14" s="20" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B14" s="35" t="n">
+      <c r="N13" s="34"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13">
         <v>1446</v>
       </c>
-      <c r="C14" s="57" t="n">
-        <v>18.43940881674084</v>
-      </c>
-      <c r="D14" s="35" t="n">
+      <c r="C14" s="34">
+        <v>18.439408816740841</v>
+      </c>
+      <c r="D14" s="13">
         <v>837</v>
       </c>
-      <c r="E14" s="57" t="n">
-        <v>10.67343373417157</v>
-      </c>
-      <c r="F14" s="18" t="n">
+      <c r="E14" s="34">
+        <v>10.673433734171565</v>
+      </c>
+      <c r="F14" s="18">
         <v>444</v>
       </c>
-      <c r="G14" s="57" t="n">
-        <v>5.661893163646565</v>
-      </c>
-      <c r="H14" s="35" t="n">
+      <c r="G14" s="34">
+        <v>5.6618931636465648</v>
+      </c>
+      <c r="H14" s="13">
         <v>288</v>
       </c>
-      <c r="I14" s="35" t="n">
+      <c r="I14" s="13">
         <v>405</v>
       </c>
-      <c r="J14" s="35" t="n">
+      <c r="J14" s="13">
         <v>427</v>
       </c>
-      <c r="K14" s="35" t="n">
+      <c r="K14" s="13">
         <v>30</v>
       </c>
-      <c r="L14" s="35" t="n">
+      <c r="L14" s="13">
         <v>12</v>
       </c>
-      <c r="M14" s="35" t="n">
+      <c r="M14" s="13">
         <v>22</v>
       </c>
-      <c r="N14" s="57" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="3">
-      <c r="A15" s="19" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B15" s="36" t="n">
+      <c r="N14" s="34"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="16">
         <v>1384</v>
       </c>
-      <c r="C15" s="58" t="n">
-        <v>24.55206670214653</v>
-      </c>
-      <c r="D15" s="36" t="n">
+      <c r="C15" s="24">
+        <v>24.552066702146533</v>
+      </c>
+      <c r="D15" s="16">
         <v>657</v>
       </c>
-      <c r="E15" s="58" t="n">
+      <c r="E15" s="24">
         <v>11.6551357104843</v>
       </c>
-      <c r="F15" s="21" t="n">
+      <c r="F15" s="21">
         <v>385</v>
       </c>
-      <c r="G15" s="58" t="n">
+      <c r="G15" s="24">
         <v>6.829874046478623</v>
       </c>
-      <c r="H15" s="36" t="n">
+      <c r="H15" s="16">
         <v>254</v>
       </c>
-      <c r="I15" s="36" t="n">
+      <c r="I15" s="16">
         <v>340</v>
       </c>
-      <c r="J15" s="36" t="n">
+      <c r="J15" s="16">
         <v>360</v>
       </c>
-      <c r="K15" s="36" t="n">
+      <c r="K15" s="16">
         <v>22</v>
       </c>
-      <c r="L15" s="36" t="n">
+      <c r="L15" s="16">
         <v>13</v>
       </c>
-      <c r="M15" s="36" t="n">
+      <c r="M15" s="16">
         <v>16</v>
       </c>
-      <c r="N15" s="57" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="3">
-      <c r="A16" s="20" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B16" s="35" t="n">
+      <c r="N15" s="34"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13">
         <v>926</v>
       </c>
-      <c r="C16" s="57" t="n">
-        <v>13.85211446693294</v>
-      </c>
-      <c r="D16" s="35" t="n">
+      <c r="C16" s="34">
+        <v>13.852114466932939</v>
+      </c>
+      <c r="D16" s="13">
         <v>589</v>
       </c>
-      <c r="E16" s="57" t="n">
-        <v>8.810902182530779</v>
-      </c>
-      <c r="F16" s="22" t="n">
+      <c r="E16" s="34">
+        <v>8.8109021825307785</v>
+      </c>
+      <c r="F16" s="22">
         <v>247</v>
       </c>
-      <c r="G16" s="60" t="n">
-        <v>3.694894463641939</v>
-      </c>
-      <c r="H16" s="35" t="n">
+      <c r="G16" s="52">
+        <v>3.6948944636419392</v>
+      </c>
+      <c r="H16" s="13">
         <v>244</v>
       </c>
-      <c r="I16" s="35" t="n">
+      <c r="I16" s="13">
         <v>228</v>
       </c>
-      <c r="J16" s="35" t="n">
+      <c r="J16" s="13">
         <v>249</v>
       </c>
-      <c r="K16" s="35" t="n">
+      <c r="K16" s="13">
         <v>23</v>
       </c>
-      <c r="L16" s="35" t="n">
+      <c r="L16" s="13">
         <v>9</v>
       </c>
-      <c r="M16" s="35" t="n">
+      <c r="M16" s="13">
         <v>21</v>
       </c>
-      <c r="N16" s="57" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="3">
-      <c r="A17" s="19" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
-      </c>
-      <c r="B17" s="36" t="n">
+      <c r="N16" s="34"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="16">
         <v>1050</v>
       </c>
-      <c r="C17" s="58" t="n">
-        <v>29.13227439827981</v>
-      </c>
-      <c r="D17" s="36" t="n">
+      <c r="C17" s="24">
+        <v>29.132274398279808</v>
+      </c>
+      <c r="D17" s="16">
         <v>387</v>
       </c>
-      <c r="E17" s="58" t="n">
-        <v>10.73732399250884</v>
-      </c>
-      <c r="F17" s="23" t="n">
+      <c r="E17" s="24">
+        <v>10.737323992508843</v>
+      </c>
+      <c r="F17" s="23">
         <v>164</v>
       </c>
-      <c r="G17" s="59" t="n">
-        <v>4.550183810778941</v>
-      </c>
-      <c r="H17" s="36" t="n">
+      <c r="G17" s="51">
+        <v>4.5501838107789414</v>
+      </c>
+      <c r="H17" s="16">
         <v>135</v>
       </c>
-      <c r="I17" s="36" t="n">
+      <c r="I17" s="16">
         <v>175</v>
       </c>
-      <c r="J17" s="36" t="n">
+      <c r="J17" s="16">
         <v>170</v>
       </c>
-      <c r="K17" s="36" t="n">
+      <c r="K17" s="16">
         <v>18</v>
       </c>
-      <c r="L17" s="36" t="n">
+      <c r="L17" s="16">
         <v>11</v>
       </c>
-      <c r="M17" s="36" t="n">
+      <c r="M17" s="16">
         <v>13</v>
       </c>
-      <c r="N17" s="57" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="3">
-      <c r="A18" s="20" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B18" s="35" t="n">
+      <c r="N17" s="34"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13">
         <v>557</v>
       </c>
-      <c r="C18" s="57" t="n">
-        <v>19.59266945724436</v>
-      </c>
-      <c r="D18" s="35" t="n">
+      <c r="C18" s="34">
+        <v>19.592669457244362</v>
+      </c>
+      <c r="D18" s="13">
         <v>236</v>
       </c>
-      <c r="E18" s="57" t="n">
-        <v>8.301382391220233</v>
-      </c>
-      <c r="F18" s="18" t="n">
+      <c r="E18" s="34">
+        <v>8.3013823912202334</v>
+      </c>
+      <c r="F18" s="18">
         <v>183</v>
       </c>
-      <c r="G18" s="57" t="n">
-        <v>6.437088888107215</v>
-      </c>
-      <c r="H18" s="35" t="n">
+      <c r="G18" s="34">
+        <v>6.4370888881072146</v>
+      </c>
+      <c r="H18" s="13">
         <v>72</v>
       </c>
-      <c r="I18" s="35" t="n">
+      <c r="I18" s="13">
         <v>114</v>
       </c>
-      <c r="J18" s="35" t="n">
+      <c r="J18" s="13">
         <v>181</v>
       </c>
-      <c r="K18" s="35" t="n">
+      <c r="K18" s="13">
         <v>13</v>
       </c>
-      <c r="L18" s="35" t="n">
+      <c r="L18" s="13">
         <v>8</v>
       </c>
-      <c r="M18" s="35" t="n">
+      <c r="M18" s="13">
         <v>9</v>
       </c>
-      <c r="N18" s="57" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="3">
-      <c r="A19" s="19" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
-      </c>
-      <c r="B19" s="36" t="n">
+      <c r="N18" s="34"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="16">
         <v>997</v>
       </c>
-      <c r="C19" s="58" t="n">
-        <v>17.91425593847702</v>
-      </c>
-      <c r="D19" s="36" t="n">
+      <c r="C19" s="24">
+        <v>17.914255938477019</v>
+      </c>
+      <c r="D19" s="16">
         <v>401</v>
       </c>
-      <c r="E19" s="58" t="n">
+      <c r="E19" s="24">
         <v>7.205232328314227</v>
       </c>
-      <c r="F19" s="21" t="n">
+      <c r="F19" s="21">
         <v>191</v>
       </c>
-      <c r="G19" s="58" t="n">
-        <v>3.43191864016962</v>
-      </c>
-      <c r="H19" s="36" t="n">
+      <c r="G19" s="24">
+        <v>3.4319186401696196</v>
+      </c>
+      <c r="H19" s="16">
         <v>124</v>
       </c>
-      <c r="I19" s="36" t="n">
+      <c r="I19" s="16">
         <v>149</v>
       </c>
-      <c r="J19" s="36" t="n">
+      <c r="J19" s="16">
         <v>198</v>
       </c>
-      <c r="K19" s="36" t="n">
+      <c r="K19" s="16">
         <v>18</v>
       </c>
-      <c r="L19" s="36" t="n">
+      <c r="L19" s="16">
         <v>10</v>
       </c>
-      <c r="M19" s="36" t="n">
+      <c r="M19" s="16">
         <v>16</v>
       </c>
-      <c r="N19" s="57" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="3">
-      <c r="A20" s="20" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
-      </c>
-      <c r="B20" s="35" t="n">
+      <c r="N19" s="34"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13">
         <v>715</v>
       </c>
-      <c r="C20" s="57" t="n">
-        <v>14.46519249833094</v>
-      </c>
-      <c r="D20" s="35" t="n">
+      <c r="C20" s="34">
+        <v>14.465192498330939</v>
+      </c>
+      <c r="D20" s="13">
         <v>472</v>
       </c>
-      <c r="E20" s="57" t="n">
+      <c r="E20" s="34">
         <v>9.549050152744341</v>
       </c>
-      <c r="F20" s="22" t="n">
+      <c r="F20" s="22">
         <v>192</v>
       </c>
-      <c r="G20" s="60" t="n">
-        <v>3.88435938416719</v>
-      </c>
-      <c r="H20" s="35" t="n">
+      <c r="G20" s="52">
+        <v>3.8843593841671895</v>
+      </c>
+      <c r="H20" s="13">
         <v>138</v>
       </c>
-      <c r="I20" s="35" t="n">
+      <c r="I20" s="13">
         <v>165</v>
       </c>
-      <c r="J20" s="35" t="n">
+      <c r="J20" s="13">
         <v>204</v>
       </c>
-      <c r="K20" s="35" t="n">
+      <c r="K20" s="13">
         <v>21</v>
       </c>
-      <c r="L20" s="35" t="n">
+      <c r="L20" s="13">
         <v>3</v>
       </c>
-      <c r="M20" s="35" t="n">
+      <c r="M20" s="13">
         <v>19</v>
       </c>
-      <c r="N20" s="57" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="3">
-      <c r="A21" s="19" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B21" s="36" t="n">
+      <c r="N20" s="34"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="16">
         <v>192</v>
       </c>
-      <c r="C21" s="58" t="n">
-        <v>27.65773552290406</v>
-      </c>
-      <c r="D21" s="36" t="n">
+      <c r="C21" s="24">
+        <v>27.657735522904062</v>
+      </c>
+      <c r="D21" s="16">
         <v>201</v>
       </c>
-      <c r="E21" s="58" t="n">
-        <v>28.95419187554019</v>
-      </c>
-      <c r="F21" s="23" t="n">
+      <c r="E21" s="24">
+        <v>28.954191875540189</v>
+      </c>
+      <c r="F21" s="23">
         <v>100</v>
       </c>
-      <c r="G21" s="59" t="n">
-        <v>14.40507058484587</v>
-      </c>
-      <c r="H21" s="36" t="n">
+      <c r="G21" s="51">
+        <v>14.405070584845866</v>
+      </c>
+      <c r="H21" s="16">
         <v>41</v>
       </c>
-      <c r="I21" s="36" t="n">
+      <c r="I21" s="16">
         <v>104</v>
       </c>
-      <c r="J21" s="36" t="n">
+      <c r="J21" s="16">
         <v>105</v>
       </c>
-      <c r="K21" s="36" t="n">
+      <c r="K21" s="16">
         <v>13</v>
       </c>
-      <c r="L21" s="36" t="n">
+      <c r="L21" s="16">
         <v>6</v>
       </c>
-      <c r="M21" s="36" t="n">
+      <c r="M21" s="16">
         <v>5</v>
       </c>
-      <c r="N21" s="57" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="3">
-      <c r="A22" s="20" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B22" s="35" t="n">
+      <c r="N21" s="34"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="13">
         <v>453</v>
       </c>
-      <c r="C22" s="57" t="n">
-        <v>30.18088543922183</v>
-      </c>
-      <c r="D22" s="35" t="n">
+      <c r="C22" s="34">
+        <v>30.180885439221825</v>
+      </c>
+      <c r="D22" s="13">
         <v>161</v>
       </c>
-      <c r="E22" s="57" t="n">
-        <v>10.72653985808988</v>
-      </c>
-      <c r="F22" s="22" t="n">
+      <c r="E22" s="34">
+        <v>10.726539858089877</v>
+      </c>
+      <c r="F22" s="22">
         <v>76</v>
       </c>
-      <c r="G22" s="60" t="n">
-        <v>5.063459808787767</v>
-      </c>
-      <c r="H22" s="35" t="n">
+      <c r="G22" s="52">
+        <v>5.0634598087877674</v>
+      </c>
+      <c r="H22" s="13">
         <v>58</v>
       </c>
-      <c r="I22" s="35" t="n">
+      <c r="I22" s="13">
         <v>58</v>
       </c>
-      <c r="J22" s="35" t="n">
+      <c r="J22" s="13">
         <v>76</v>
       </c>
-      <c r="K22" s="35" t="n">
+      <c r="K22" s="13">
         <v>8</v>
       </c>
-      <c r="L22" s="35" t="n">
+      <c r="L22" s="13">
         <v>5</v>
       </c>
-      <c r="M22" s="35" t="n">
+      <c r="M22" s="13">
         <v>4</v>
       </c>
-      <c r="N22" s="57" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="3">
-      <c r="A23" s="19" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B23" s="36" t="n">
+      <c r="N22" s="34"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="16">
         <v>957</v>
       </c>
-      <c r="C23" s="58" t="n">
-        <v>43.93939393939394</v>
-      </c>
-      <c r="D23" s="36" t="n">
+      <c r="C23" s="24">
+        <v>43.939393939393938</v>
+      </c>
+      <c r="D23" s="16">
         <v>502</v>
       </c>
-      <c r="E23" s="58" t="n">
-        <v>23.04866850321396</v>
-      </c>
-      <c r="F23" s="23" t="n">
+      <c r="E23" s="24">
+        <v>23.048668503213957</v>
+      </c>
+      <c r="F23" s="23">
         <v>253</v>
       </c>
-      <c r="G23" s="59" t="n">
-        <v>11.61616161616162</v>
-      </c>
-      <c r="H23" s="36" t="n">
+      <c r="G23" s="51">
+        <v>11.616161616161616</v>
+      </c>
+      <c r="H23" s="16">
         <v>128</v>
       </c>
-      <c r="I23" s="36" t="n">
+      <c r="I23" s="16">
         <v>211</v>
       </c>
-      <c r="J23" s="36" t="n">
+      <c r="J23" s="16">
         <v>260</v>
       </c>
-      <c r="K23" s="36" t="n">
+      <c r="K23" s="16">
         <v>20</v>
       </c>
-      <c r="L23" s="36" t="n">
+      <c r="L23" s="16">
         <v>9</v>
       </c>
-      <c r="M23" s="36" t="n">
+      <c r="M23" s="16">
         <v>8</v>
       </c>
-      <c r="N23" s="57" t="n"/>
-    </row>
-    <row r="24" s="3">
-      <c r="A24" s="10" t="inlineStr">
-        <is>
-          <t>Nota: Población calculada a 01/07/2023. Padrón Municipal de Habitantes del Ayuntamiento de València.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="9" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Gestión Sostenible de Residuos Urbanos y Limpieza del Espacio Público. Ayuntamiento de València.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="10" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="9" t="n"/>
+      <c r="N23" s="34"/>
+    </row>
+    <row r="24" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="56" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja30">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="3" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="3" min="3" max="3"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja44">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="3" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="3" min="3" max="3"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja68">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="17.140625" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.28515625" customWidth="1" style="3" min="2" max="5"/>
-    <col width="14.85546875" customWidth="1" style="3" min="6" max="6"/>
-    <col width="12.7109375" customWidth="1" style="3" min="7" max="9"/>
-    <col width="3.28515625" customWidth="1" style="3" min="10" max="10"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="3">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>2. Recogida de residuos sólidos según mes. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="n"/>
-      <c r="B2" s="12" t="n"/>
-      <c r="C2" s="12" t="n"/>
-      <c r="D2" s="12" t="n"/>
-      <c r="E2" s="12" t="n"/>
-      <c r="F2" s="12" t="n"/>
-      <c r="G2" s="12" t="n"/>
-      <c r="H2" s="12" t="n"/>
-      <c r="I2" s="12" t="n"/>
-      <c r="J2" s="12" t="n"/>
-    </row>
-    <row r="3" ht="33.75" customHeight="1" s="3">
-      <c r="A3" s="14" t="n"/>
-      <c r="B3" s="17" t="inlineStr">
-        <is>
-          <t>Basura (RU)</t>
-        </is>
-      </c>
-      <c r="C3" s="17" t="inlineStr">
-        <is>
-          <t>Basura Orgánica</t>
-        </is>
-      </c>
-      <c r="D3" s="17" t="inlineStr">
-        <is>
-          <t>Vidrio</t>
-        </is>
-      </c>
-      <c r="E3" s="17" t="inlineStr">
-        <is>
-          <t>Papel-cartón</t>
-        </is>
-      </c>
-      <c r="F3" s="17" t="inlineStr">
-        <is>
-          <t>Plástico y
-envases ligeros</t>
-        </is>
-      </c>
-      <c r="G3" s="17" t="inlineStr">
-        <is>
-          <t>Aceite vegetal</t>
-        </is>
-      </c>
-      <c r="H3" s="17" t="inlineStr">
-        <is>
-          <t>Pilas</t>
-        </is>
-      </c>
-      <c r="I3" s="17" t="inlineStr">
-        <is>
-          <t>Ropa usada (**)</t>
-        </is>
-      </c>
-      <c r="J3" s="53" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="25" t="inlineStr">
-        <is>
-          <t>Valor económico (€)</t>
-        </is>
-      </c>
-      <c r="B4" s="61" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C4" s="61" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" s="18" t="inlineStr">
-        <is>
-          <t>(*)</t>
-        </is>
-      </c>
-      <c r="E4" s="33" t="n">
-        <v>1565773.6937</v>
-      </c>
-      <c r="F4" s="33" t="n">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="53"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="33">
+        <v>1565773.6937000002</v>
+      </c>
+      <c r="F4" s="33">
         <v>3511680.69</v>
       </c>
-      <c r="G4" s="33" t="n">
+      <c r="G4" s="33">
         <v>0</v>
       </c>
-      <c r="H4" s="33" t="n">
+      <c r="H4" s="33">
         <v>0</v>
       </c>
-      <c r="I4" s="22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J4" s="22" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="26" t="inlineStr">
-        <is>
-          <t>Volumen físico (tm)</t>
-        </is>
-      </c>
-      <c r="B5" s="41" t="n">
-        <v>241103.62</v>
-      </c>
-      <c r="C5" s="41" t="n">
+      <c r="I4" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="27">
+        <v>241103.61999999997</v>
+      </c>
+      <c r="C5" s="27">
         <v>39304.92</v>
       </c>
-      <c r="D5" s="41" t="n">
+      <c r="D5" s="27">
         <v>15608.82</v>
       </c>
-      <c r="E5" s="41" t="n">
-        <v>21982.879</v>
-      </c>
-      <c r="F5" s="41" t="n">
-        <v>18353.56</v>
-      </c>
-      <c r="G5" s="41" t="n">
-        <v>59.59</v>
-      </c>
-      <c r="H5" s="41" t="n">
-        <v>2.344</v>
-      </c>
-      <c r="I5" s="41" t="n">
-        <v>2015.26571</v>
-      </c>
-      <c r="J5" s="43" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="20" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="B6" s="43" t="n">
-        <v>20419.74</v>
-      </c>
-      <c r="C6" s="43" t="n">
+      <c r="E5" s="27">
+        <v>21982.879000000001</v>
+      </c>
+      <c r="F5" s="27">
+        <v>18353.560000000001</v>
+      </c>
+      <c r="G5" s="27">
+        <v>59.589999999999996</v>
+      </c>
+      <c r="H5" s="27">
+        <v>2.3439999999999999</v>
+      </c>
+      <c r="I5" s="27">
+        <v>2015.2657100000001</v>
+      </c>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="28">
+        <v>20419.740000000002</v>
+      </c>
+      <c r="C6" s="28">
         <v>3404.48</v>
       </c>
-      <c r="D6" s="43" t="n">
+      <c r="D6" s="28">
         <v>1434.9</v>
       </c>
-      <c r="E6" s="43" t="n">
-        <v>1970.44</v>
-      </c>
-      <c r="F6" s="43" t="n">
+      <c r="E6" s="28">
+        <v>1970.4399999999998</v>
+      </c>
+      <c r="F6" s="28">
         <v>1524.96</v>
       </c>
-      <c r="G6" s="43" t="n">
+      <c r="G6" s="28">
         <v>6.83</v>
       </c>
-      <c r="H6" s="43" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="I6" s="43" t="n">
-        <v>139.73428</v>
-      </c>
-      <c r="J6" s="43" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="19" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="B7" s="41" t="n">
+      <c r="H6" s="28">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="I6" s="28">
+        <v>139.73428000000001</v>
+      </c>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="27">
         <v>18400.28</v>
       </c>
-      <c r="C7" s="41" t="n">
+      <c r="C7" s="27">
         <v>3046.66</v>
       </c>
-      <c r="D7" s="41" t="n">
-        <v>1169.6</v>
-      </c>
-      <c r="E7" s="41" t="n">
+      <c r="D7" s="27">
+        <v>1169.5999999999999</v>
+      </c>
+      <c r="E7" s="27">
         <v>1770.74</v>
       </c>
-      <c r="F7" s="41" t="n">
-        <v>1414.82</v>
-      </c>
-      <c r="G7" s="41" t="n">
+      <c r="F7" s="27">
+        <v>1414.8200000000002</v>
+      </c>
+      <c r="G7" s="27">
         <v>7.91</v>
       </c>
-      <c r="H7" s="41" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="I7" s="41" t="n">
-        <v>101.42015</v>
-      </c>
-      <c r="J7" s="43" t="n"/>
-      <c r="L7" s="62" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="20" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="B8" s="43" t="n">
+      <c r="H7" s="27">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="I7" s="27">
+        <v>101.42014999999999</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="L7" s="42"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="28">
         <v>21960</v>
       </c>
-      <c r="C8" s="43" t="n">
+      <c r="C8" s="28">
         <v>3418.4</v>
       </c>
-      <c r="D8" s="43" t="n">
+      <c r="D8" s="28">
         <v>1528.64</v>
       </c>
-      <c r="E8" s="43" t="n">
+      <c r="E8" s="28">
         <v>1909.42</v>
       </c>
-      <c r="F8" s="43" t="n">
+      <c r="F8" s="28">
         <v>1619.08</v>
       </c>
-      <c r="G8" s="43" t="n">
+      <c r="G8" s="28">
         <v>5.25</v>
       </c>
-      <c r="H8" s="43" t="n">
-        <v>0.08799999999999999</v>
-      </c>
-      <c r="I8" s="43" t="n">
+      <c r="H8" s="28">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I8" s="28">
         <v>124.61028</v>
       </c>
-      <c r="J8" s="43" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="3">
-      <c r="A9" s="19" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="B9" s="41" t="n">
-        <v>18829.1</v>
-      </c>
-      <c r="C9" s="41" t="n">
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="27">
+        <v>18829.099999999999</v>
+      </c>
+      <c r="C9" s="27">
         <v>3034.44</v>
       </c>
-      <c r="D9" s="41" t="n">
-        <v>1112.88</v>
-      </c>
-      <c r="E9" s="41" t="n">
-        <v>1718.515</v>
-      </c>
-      <c r="F9" s="41" t="n">
+      <c r="D9" s="27">
+        <v>1112.8800000000001</v>
+      </c>
+      <c r="E9" s="27">
+        <v>1718.5149999999999</v>
+      </c>
+      <c r="F9" s="27">
         <v>1420.28</v>
       </c>
-      <c r="G9" s="41" t="n">
+      <c r="G9" s="27">
         <v>5.52</v>
       </c>
-      <c r="H9" s="41" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="I9" s="41" t="n">
-        <v>148.671</v>
-      </c>
-      <c r="J9" s="43" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="3">
-      <c r="A10" s="20" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="B10" s="43" t="n">
+      <c r="H9" s="27">
+        <v>0.21700000000000003</v>
+      </c>
+      <c r="I9" s="27">
+        <v>148.67099999999999</v>
+      </c>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="28">
         <v>21275.86</v>
       </c>
-      <c r="C10" s="43" t="n">
+      <c r="C10" s="28">
         <v>3482.14</v>
       </c>
-      <c r="D10" s="43" t="n">
-        <v>1463.34</v>
-      </c>
-      <c r="E10" s="43" t="n">
+      <c r="D10" s="28">
+        <v>1463.3399999999997</v>
+      </c>
+      <c r="E10" s="28">
         <v>2002.82</v>
       </c>
-      <c r="F10" s="43" t="n">
+      <c r="F10" s="28">
         <v>1636.07</v>
       </c>
-      <c r="G10" s="43" t="n">
-        <v>7.815</v>
-      </c>
-      <c r="H10" s="43" t="n">
+      <c r="G10" s="28">
+        <v>7.8150000000000004</v>
+      </c>
+      <c r="H10" s="28">
         <v>0.112</v>
       </c>
-      <c r="I10" s="43" t="n">
-        <v>203.332</v>
-      </c>
-      <c r="J10" s="43" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="3">
-      <c r="A11" s="19" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="B11" s="41" t="n">
+      <c r="I10" s="28">
+        <v>203.33199999999999</v>
+      </c>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="27">
         <v>20926.12</v>
       </c>
-      <c r="C11" s="41" t="n">
+      <c r="C11" s="27">
         <v>3520.18</v>
       </c>
-      <c r="D11" s="41" t="n">
+      <c r="D11" s="27">
         <v>1247.46</v>
       </c>
-      <c r="E11" s="41" t="n">
+      <c r="E11" s="27">
         <v>1958.92</v>
       </c>
-      <c r="F11" s="41" t="n">
+      <c r="F11" s="27">
         <v>1577.3</v>
       </c>
-      <c r="G11" s="41" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="H11" s="41" t="n">
+      <c r="G11" s="27">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="H11" s="27">
         <v>0.05</v>
       </c>
-      <c r="I11" s="41" t="n">
+      <c r="I11" s="27">
         <v>189.3</v>
       </c>
-      <c r="J11" s="43" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="3">
-      <c r="A12" s="20" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="B12" s="43" t="n">
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="28">
         <v>20529.64</v>
       </c>
-      <c r="C12" s="43" t="n">
+      <c r="C12" s="28">
         <v>3353.56</v>
       </c>
-      <c r="D12" s="43" t="n">
+      <c r="D12" s="28">
         <v>1239.68</v>
       </c>
-      <c r="E12" s="43" t="n">
-        <v>1799.754</v>
-      </c>
-      <c r="F12" s="43" t="n">
-        <v>1544.26</v>
-      </c>
-      <c r="G12" s="43" t="n">
+      <c r="E12" s="28">
+        <v>1799.7539999999999</v>
+      </c>
+      <c r="F12" s="28">
+        <v>1544.2600000000002</v>
+      </c>
+      <c r="G12" s="28">
         <v>2.86</v>
       </c>
-      <c r="H12" s="43" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="I12" s="43" t="n">
+      <c r="H12" s="28">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I12" s="28">
         <v>167.864</v>
       </c>
-      <c r="J12" s="43" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="3">
-      <c r="A13" s="19" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="B13" s="41" t="n">
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="27">
         <v>17809.02</v>
       </c>
-      <c r="C13" s="41" t="n">
+      <c r="C13" s="27">
         <v>2819.88</v>
       </c>
-      <c r="D13" s="41" t="n">
-        <v>1198.88</v>
-      </c>
-      <c r="E13" s="41" t="n">
+      <c r="D13" s="27">
+        <v>1198.8800000000001</v>
+      </c>
+      <c r="E13" s="27">
         <v>1497.92</v>
       </c>
-      <c r="F13" s="41" t="n">
+      <c r="F13" s="27">
         <v>1321.11</v>
       </c>
-      <c r="G13" s="41" t="n">
+      <c r="G13" s="27">
         <v>2.665</v>
       </c>
-      <c r="H13" s="41" t="n">
+      <c r="H13" s="27">
         <v>0.31</v>
       </c>
-      <c r="I13" s="41" t="n">
-        <v>139.242</v>
-      </c>
-      <c r="J13" s="43" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="3">
-      <c r="A14" s="20" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="B14" s="43" t="n">
+      <c r="I13" s="27">
+        <v>139.24199999999999</v>
+      </c>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="28">
         <v>20637.52</v>
       </c>
-      <c r="C14" s="43" t="n">
+      <c r="C14" s="28">
         <v>3305.06</v>
       </c>
-      <c r="D14" s="43" t="n">
+      <c r="D14" s="28">
         <v>1178.24</v>
       </c>
-      <c r="E14" s="43" t="n">
-        <v>1975.82</v>
-      </c>
-      <c r="F14" s="43" t="n">
+      <c r="E14" s="28">
+        <v>1975.8199999999997</v>
+      </c>
+      <c r="F14" s="28">
         <v>1646.62</v>
       </c>
-      <c r="G14" s="43" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="H14" s="43" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="I14" s="43" t="n">
+      <c r="G14" s="28">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="H14" s="28">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I14" s="28">
         <v>188.7</v>
       </c>
-      <c r="J14" s="43" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="3">
-      <c r="A15" s="19" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="B15" s="41" t="n">
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="27">
         <v>20175.32</v>
       </c>
-      <c r="C15" s="41" t="n">
+      <c r="C15" s="27">
         <v>3328.74</v>
       </c>
-      <c r="D15" s="41" t="n">
+      <c r="D15" s="27">
         <v>1192.22</v>
       </c>
-      <c r="E15" s="41" t="n">
-        <v>1745.78</v>
-      </c>
-      <c r="F15" s="41" t="n">
-        <v>1559.86</v>
-      </c>
-      <c r="G15" s="41" t="n">
+      <c r="E15" s="27">
+        <v>1745.7800000000002</v>
+      </c>
+      <c r="F15" s="27">
+        <v>1559.8600000000001</v>
+      </c>
+      <c r="G15" s="27">
         <v>4.01</v>
       </c>
-      <c r="H15" s="41" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="I15" s="41" t="n">
-        <v>208.701</v>
-      </c>
-      <c r="J15" s="43" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="3">
-      <c r="A16" s="20" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="B16" s="43" t="n">
+      <c r="H15" s="27">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I15" s="27">
+        <v>208.70099999999999</v>
+      </c>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="28">
         <v>19960.46</v>
       </c>
-      <c r="C16" s="43" t="n">
+      <c r="C16" s="28">
         <v>3227.02</v>
       </c>
-      <c r="D16" s="43" t="n">
+      <c r="D16" s="28">
         <v>1459.28</v>
       </c>
-      <c r="E16" s="43" t="n">
+      <c r="E16" s="28">
         <v>1766.86</v>
       </c>
-      <c r="F16" s="43" t="n">
+      <c r="F16" s="28">
         <v>1533.08</v>
       </c>
-      <c r="G16" s="43" t="n">
+      <c r="G16" s="28">
         <v>3.64</v>
       </c>
-      <c r="H16" s="43" t="n">
-        <v>0.9069999999999999</v>
-      </c>
-      <c r="I16" s="43" t="n">
+      <c r="H16" s="28">
+        <v>0.90699999999999992</v>
+      </c>
+      <c r="I16" s="28">
         <v>234.589</v>
       </c>
-      <c r="J16" s="43" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="3">
-      <c r="A17" s="19" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-      <c r="B17" s="41" t="n">
-        <v>20180.56</v>
-      </c>
-      <c r="C17" s="41" t="n">
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="27">
+        <v>20180.560000000001</v>
+      </c>
+      <c r="C17" s="27">
         <v>3364.36</v>
       </c>
-      <c r="D17" s="41" t="n">
-        <v>1383.7</v>
-      </c>
-      <c r="E17" s="41" t="n">
-        <v>1865.89</v>
-      </c>
-      <c r="F17" s="41" t="n">
-        <v>1556.12</v>
-      </c>
-      <c r="G17" s="41" t="n">
+      <c r="D17" s="27">
+        <v>1383.6999999999998</v>
+      </c>
+      <c r="E17" s="27">
+        <v>1865.8899999999999</v>
+      </c>
+      <c r="F17" s="27">
+        <v>1556.1200000000001</v>
+      </c>
+      <c r="G17" s="27">
         <v>3.42</v>
       </c>
-      <c r="H17" s="41" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="I17" s="41" t="n">
+      <c r="H17" s="27">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="I17" s="27">
         <v>169.102</v>
       </c>
-      <c r="J17" s="43" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="3">
-      <c r="A18" s="11" t="inlineStr">
-        <is>
-          <t>Kg por hab. y año</t>
-        </is>
-      </c>
-      <c r="B18" s="43" t="n">
-        <v>294.0094432805644</v>
-      </c>
-      <c r="C18" s="43" t="n">
-        <v>47.92967292397817</v>
-      </c>
-      <c r="D18" s="43" t="n">
-        <v>19.03389288998041</v>
-      </c>
-      <c r="E18" s="43" t="n">
-        <v>26.80662371014592</v>
-      </c>
-      <c r="F18" s="43" t="n">
-        <v>22.3809163786775</v>
-      </c>
-      <c r="G18" s="43" t="n">
-        <v>0.07266594638889633</v>
-      </c>
-      <c r="H18" s="43" t="n">
-        <v>0.002858348352669458</v>
-      </c>
-      <c r="I18" s="43" t="n">
-        <v>2.457479275755011</v>
-      </c>
-      <c r="J18" s="43" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="inlineStr">
-        <is>
-          <t>Nota: Población calculada a 01/07/2023. Nota: (*) Desde el convenio firmado con ECOVIDRIO, no hay costes ni ingresos para el Ayuntamiento.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Gestión Sostenible de Residuos Urbanos y Limpieza del Espacio Público. Ajuntament de València. (**) Servicio de Bienestar Social e Integración. Ajuntament de València.</t>
-        </is>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="28">
+        <v>294.00944328056443</v>
+      </c>
+      <c r="C18" s="28">
+        <v>47.929672923978174</v>
+      </c>
+      <c r="D18" s="28">
+        <v>19.033892889980415</v>
+      </c>
+      <c r="E18" s="28">
+        <v>26.806623710145917</v>
+      </c>
+      <c r="F18" s="28">
+        <v>22.380916378677501</v>
+      </c>
+      <c r="G18" s="28">
+        <v>7.2665946388896327E-2</v>
+      </c>
+      <c r="H18" s="28">
+        <v>2.8583483526694584E-3</v>
+      </c>
+      <c r="I18" s="28">
+        <v>2.4574792757550115</v>
+      </c>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="79" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja32">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="1" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="1" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="1" min="4" max="16384"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja33">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="J3:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="3" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="3" min="3" max="3"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="J3" s="1" t="n"/>
-    </row>
-    <row r="4">
-      <c r="J4" s="1" t="n"/>
-    </row>
-    <row r="5">
-      <c r="J5" s="1" t="n"/>
-    </row>
-    <row r="6">
-      <c r="J6" s="1" t="n"/>
-    </row>
-    <row r="7">
-      <c r="J7" s="1" t="n"/>
-    </row>
-    <row r="8">
-      <c r="J8" s="1" t="n"/>
-    </row>
-    <row r="9">
-      <c r="J9" s="1" t="n"/>
-    </row>
-    <row r="10">
-      <c r="J10" s="1" t="n"/>
-    </row>
-    <row r="11">
-      <c r="J11" s="1" t="n"/>
-    </row>
-    <row r="12">
-      <c r="J12" s="1" t="n"/>
-    </row>
-    <row r="13">
-      <c r="J13" s="1" t="n"/>
-    </row>
-    <row r="14">
-      <c r="J14" s="1" t="n"/>
+    <row r="3" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J14" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja34">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="1" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="1" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="1" min="4" max="16384"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja35">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="1" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="1" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="1" min="4" max="16384"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>